--- a/input/combos.xlsx
+++ b/input/combos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\andrerodrigues\projetos\licencas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030C75BC-4248-4C15-9B39-6F1A6AFE44AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A876C5-716F-4CD7-B7FE-90643626EEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{311B407B-F149-4833-BA1A-AA9E48DB4D65}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$K$1021</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$K$1020</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9190" uniqueCount="1100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9398" uniqueCount="1106">
   <si>
     <t>MARCA</t>
   </si>
@@ -3339,14 +3339,40 @@
   </si>
   <si>
     <t>HIGHFIVE1.0EX_ANOS_FINAIS_2024</t>
+  </si>
+  <si>
+    <t>CONCEPT - UNIVERSITY PREP. - EBK 2ª SÉRIE - ANUAL</t>
+  </si>
+  <si>
+    <t>CONCEPT - UNIVERSITY PREP. - EBK 8º ANO - ANUAL</t>
+  </si>
+  <si>
+    <t>CONCEPT - UNIVERSITY PREP. - EBK 9º ANO - ANUAL</t>
+  </si>
+  <si>
+    <t>CONCEPT - UNIVERSITY PREP. - EBK 1ª SÉRIE - ANUAL</t>
+  </si>
+  <si>
+    <t>CONCEPT - UNIVERSITY PREP. - EBK 3ª SÉRIE - ANUAL</t>
+  </si>
+  <si>
+    <t>CONCEPT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -3374,9 +3400,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3395,9 +3422,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3435,7 +3462,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3541,7 +3568,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3683,7 +3710,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3691,25 +3718,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9365272C-0459-4BC1-BEFE-6EFEC8BB175A}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:K1021"/>
+  <dimension ref="A1:K1044"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F644" sqref="F644:F667"/>
+    <sheetView tabSelected="1" topLeftCell="C994" workbookViewId="0">
+      <selection activeCell="D1037" sqref="D1037"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="69.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" customWidth="1"/>
+    <col min="6" max="6" width="36.140625" customWidth="1"/>
     <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
+    <col min="9" max="9" width="31.5703125" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
     <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3748,7 +3774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3783,7 +3809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3818,7 +3844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3853,7 +3879,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -3888,7 +3914,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3923,7 +3949,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -3958,7 +3984,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3993,7 +4019,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4028,7 +4054,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4063,7 +4089,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -4098,7 +4124,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -4133,7 +4159,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -4168,7 +4194,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -4203,7 +4229,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -4238,7 +4264,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -4273,7 +4299,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -4308,7 +4334,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -4343,7 +4369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -4378,7 +4404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -4413,7 +4439,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -4448,7 +4474,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -4483,7 +4509,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -4518,7 +4544,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -4553,7 +4579,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -4588,7 +4614,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -4623,7 +4649,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -4658,7 +4684,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -4693,7 +4719,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -4728,7 +4754,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -4763,7 +4789,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -4798,7 +4824,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -4833,7 +4859,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -4868,7 +4894,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -4903,7 +4929,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -4938,7 +4964,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -4973,7 +4999,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -5008,7 +5034,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -5043,7 +5069,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -5078,7 +5104,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -5113,7 +5139,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -5148,7 +5174,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -5183,7 +5209,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -5218,7 +5244,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -5253,7 +5279,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -5288,7 +5314,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -5323,7 +5349,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -5358,7 +5384,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -5393,7 +5419,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -5428,7 +5454,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -5463,7 +5489,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -5498,7 +5524,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -5533,7 +5559,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -5568,7 +5594,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -5603,7 +5629,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -5638,7 +5664,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -5673,7 +5699,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -5708,7 +5734,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -5743,7 +5769,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -5778,7 +5804,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -5813,7 +5839,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -5848,7 +5874,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -5883,7 +5909,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -5918,7 +5944,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -5953,7 +5979,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -5988,7 +6014,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -6023,7 +6049,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -6058,7 +6084,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -6093,7 +6119,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -6128,7 +6154,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -6163,7 +6189,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -6198,7 +6224,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -6233,7 +6259,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -6268,7 +6294,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -6303,7 +6329,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -6338,7 +6364,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -6373,7 +6399,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -6408,7 +6434,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -6443,7 +6469,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -6478,7 +6504,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -6513,7 +6539,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -6548,7 +6574,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -6583,7 +6609,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -6618,7 +6644,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -6653,7 +6679,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -6688,7 +6714,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -6723,7 +6749,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -6758,7 +6784,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -6793,7 +6819,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -6828,7 +6854,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -6863,7 +6889,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -6898,7 +6924,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -6933,7 +6959,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -6968,7 +6994,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -7003,7 +7029,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -7038,7 +7064,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -7073,7 +7099,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -7108,7 +7134,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -7143,7 +7169,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -7178,7 +7204,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -7213,7 +7239,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -7248,7 +7274,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -7283,7 +7309,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -7318,7 +7344,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -7353,7 +7379,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -7388,7 +7414,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -7423,7 +7449,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -7458,7 +7484,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -7493,7 +7519,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -7528,7 +7554,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -7563,7 +7589,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -7598,7 +7624,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -7633,7 +7659,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -7668,7 +7694,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -7703,7 +7729,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -7738,7 +7764,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -7773,7 +7799,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -7808,7 +7834,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -7843,7 +7869,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -7878,7 +7904,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -7913,7 +7939,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>215</v>
       </c>
@@ -7948,7 +7974,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>215</v>
       </c>
@@ -7983,7 +8009,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>215</v>
       </c>
@@ -8018,7 +8044,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>215</v>
       </c>
@@ -8053,7 +8079,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>215</v>
       </c>
@@ -8088,7 +8114,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>215</v>
       </c>
@@ -8123,7 +8149,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>215</v>
       </c>
@@ -8158,7 +8184,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>215</v>
       </c>
@@ -8193,7 +8219,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>215</v>
       </c>
@@ -8228,7 +8254,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>215</v>
       </c>
@@ -8263,7 +8289,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>215</v>
       </c>
@@ -8298,7 +8324,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>215</v>
       </c>
@@ -8333,7 +8359,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>215</v>
       </c>
@@ -8368,7 +8394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>215</v>
       </c>
@@ -8403,7 +8429,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>215</v>
       </c>
@@ -8438,7 +8464,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>215</v>
       </c>
@@ -8473,7 +8499,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>215</v>
       </c>
@@ -8508,7 +8534,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>215</v>
       </c>
@@ -8543,7 +8569,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>215</v>
       </c>
@@ -8578,7 +8604,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>215</v>
       </c>
@@ -8613,7 +8639,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>215</v>
       </c>
@@ -8648,7 +8674,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>215</v>
       </c>
@@ -8683,7 +8709,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>215</v>
       </c>
@@ -8718,7 +8744,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>215</v>
       </c>
@@ -8753,7 +8779,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>215</v>
       </c>
@@ -8788,7 +8814,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>215</v>
       </c>
@@ -8823,7 +8849,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>215</v>
       </c>
@@ -8858,7 +8884,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>215</v>
       </c>
@@ -8893,7 +8919,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>244</v>
       </c>
@@ -8928,7 +8954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>244</v>
       </c>
@@ -8963,7 +8989,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>244</v>
       </c>
@@ -8998,7 +9024,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>244</v>
       </c>
@@ -9033,7 +9059,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>244</v>
       </c>
@@ -9068,7 +9094,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>244</v>
       </c>
@@ -9103,7 +9129,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>244</v>
       </c>
@@ -9138,7 +9164,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>244</v>
       </c>
@@ -9173,7 +9199,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>244</v>
       </c>
@@ -9208,7 +9234,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>258</v>
       </c>
@@ -9243,7 +9269,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>258</v>
       </c>
@@ -9278,7 +9304,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>258</v>
       </c>
@@ -9313,7 +9339,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>258</v>
       </c>
@@ -9348,7 +9374,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>258</v>
       </c>
@@ -9383,7 +9409,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>258</v>
       </c>
@@ -9418,7 +9444,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>258</v>
       </c>
@@ -9453,7 +9479,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>258</v>
       </c>
@@ -9488,7 +9514,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>258</v>
       </c>
@@ -9523,7 +9549,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>268</v>
       </c>
@@ -9558,7 +9584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>268</v>
       </c>
@@ -9593,7 +9619,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>268</v>
       </c>
@@ -9628,7 +9654,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>268</v>
       </c>
@@ -9663,7 +9689,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>268</v>
       </c>
@@ -9698,7 +9724,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>268</v>
       </c>
@@ -9733,7 +9759,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>268</v>
       </c>
@@ -9768,7 +9794,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>268</v>
       </c>
@@ -9803,7 +9829,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>268</v>
       </c>
@@ -9838,7 +9864,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>268</v>
       </c>
@@ -9873,7 +9899,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>268</v>
       </c>
@@ -9908,7 +9934,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>268</v>
       </c>
@@ -9943,7 +9969,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>268</v>
       </c>
@@ -9978,7 +10004,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>268</v>
       </c>
@@ -10013,7 +10039,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>268</v>
       </c>
@@ -10048,7 +10074,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>268</v>
       </c>
@@ -10083,7 +10109,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>268</v>
       </c>
@@ -10118,7 +10144,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>268</v>
       </c>
@@ -10153,7 +10179,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>287</v>
       </c>
@@ -10188,7 +10214,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>287</v>
       </c>
@@ -10223,7 +10249,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>287</v>
       </c>
@@ -10258,7 +10284,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>287</v>
       </c>
@@ -10293,7 +10319,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>287</v>
       </c>
@@ -10328,7 +10354,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>287</v>
       </c>
@@ -10363,7 +10389,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>287</v>
       </c>
@@ -10398,7 +10424,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>287</v>
       </c>
@@ -10433,7 +10459,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>287</v>
       </c>
@@ -10468,7 +10494,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>287</v>
       </c>
@@ -10503,7 +10529,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>287</v>
       </c>
@@ -10538,7 +10564,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>287</v>
       </c>
@@ -10573,7 +10599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>287</v>
       </c>
@@ -10608,7 +10634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>287</v>
       </c>
@@ -10643,7 +10669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>287</v>
       </c>
@@ -10678,7 +10704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>287</v>
       </c>
@@ -10713,7 +10739,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>287</v>
       </c>
@@ -10748,7 +10774,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>287</v>
       </c>
@@ -10783,7 +10809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>287</v>
       </c>
@@ -10818,7 +10844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>287</v>
       </c>
@@ -10853,7 +10879,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>287</v>
       </c>
@@ -10888,7 +10914,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>287</v>
       </c>
@@ -10923,7 +10949,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>287</v>
       </c>
@@ -10958,7 +10984,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>287</v>
       </c>
@@ -10993,7 +11019,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>287</v>
       </c>
@@ -11028,7 +11054,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>287</v>
       </c>
@@ -11063,7 +11089,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>287</v>
       </c>
@@ -11098,7 +11124,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>287</v>
       </c>
@@ -11133,7 +11159,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>287</v>
       </c>
@@ -11168,7 +11194,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>287</v>
       </c>
@@ -11203,7 +11229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>287</v>
       </c>
@@ -11238,7 +11264,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>287</v>
       </c>
@@ -11273,7 +11299,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>287</v>
       </c>
@@ -11308,7 +11334,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>287</v>
       </c>
@@ -11343,7 +11369,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>287</v>
       </c>
@@ -11378,7 +11404,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>287</v>
       </c>
@@ -11413,7 +11439,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>287</v>
       </c>
@@ -11448,7 +11474,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>287</v>
       </c>
@@ -11483,7 +11509,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>287</v>
       </c>
@@ -11518,7 +11544,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>287</v>
       </c>
@@ -11553,7 +11579,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>287</v>
       </c>
@@ -11588,7 +11614,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>287</v>
       </c>
@@ -11623,7 +11649,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>287</v>
       </c>
@@ -11658,7 +11684,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>287</v>
       </c>
@@ -11693,7 +11719,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>287</v>
       </c>
@@ -11728,7 +11754,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>287</v>
       </c>
@@ -11763,7 +11789,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>287</v>
       </c>
@@ -11798,7 +11824,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>287</v>
       </c>
@@ -11833,7 +11859,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>287</v>
       </c>
@@ -11868,7 +11894,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>287</v>
       </c>
@@ -11903,7 +11929,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>287</v>
       </c>
@@ -11938,7 +11964,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>287</v>
       </c>
@@ -11973,7 +11999,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>287</v>
       </c>
@@ -12008,7 +12034,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>287</v>
       </c>
@@ -12043,7 +12069,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>287</v>
       </c>
@@ -12078,7 +12104,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>287</v>
       </c>
@@ -12113,7 +12139,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>287</v>
       </c>
@@ -12148,7 +12174,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>287</v>
       </c>
@@ -12183,7 +12209,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>287</v>
       </c>
@@ -12218,7 +12244,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>287</v>
       </c>
@@ -12253,7 +12279,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>287</v>
       </c>
@@ -12288,7 +12314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>287</v>
       </c>
@@ -12323,7 +12349,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>287</v>
       </c>
@@ -12358,7 +12384,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>287</v>
       </c>
@@ -12393,7 +12419,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>287</v>
       </c>
@@ -12428,7 +12454,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>287</v>
       </c>
@@ -12463,7 +12489,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>287</v>
       </c>
@@ -12498,7 +12524,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>287</v>
       </c>
@@ -12533,7 +12559,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>287</v>
       </c>
@@ -12568,7 +12594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>287</v>
       </c>
@@ -12603,7 +12629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>287</v>
       </c>
@@ -12638,7 +12664,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>287</v>
       </c>
@@ -12673,7 +12699,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>287</v>
       </c>
@@ -12708,7 +12734,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>287</v>
       </c>
@@ -12743,7 +12769,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>287</v>
       </c>
@@ -12778,7 +12804,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>287</v>
       </c>
@@ -12813,7 +12839,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>287</v>
       </c>
@@ -12848,7 +12874,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>287</v>
       </c>
@@ -12883,7 +12909,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>287</v>
       </c>
@@ -12918,7 +12944,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>287</v>
       </c>
@@ -12953,7 +12979,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>287</v>
       </c>
@@ -12988,7 +13014,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>287</v>
       </c>
@@ -13023,7 +13049,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>287</v>
       </c>
@@ -13058,7 +13084,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>287</v>
       </c>
@@ -13093,7 +13119,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>287</v>
       </c>
@@ -13128,7 +13154,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>287</v>
       </c>
@@ -13163,7 +13189,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>287</v>
       </c>
@@ -13198,7 +13224,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>287</v>
       </c>
@@ -13233,7 +13259,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>287</v>
       </c>
@@ -13268,7 +13294,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>287</v>
       </c>
@@ -13303,7 +13329,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>287</v>
       </c>
@@ -13338,7 +13364,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>287</v>
       </c>
@@ -13373,7 +13399,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>287</v>
       </c>
@@ -13408,7 +13434,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>287</v>
       </c>
@@ -13443,7 +13469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>287</v>
       </c>
@@ -13478,7 +13504,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>287</v>
       </c>
@@ -13513,7 +13539,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>287</v>
       </c>
@@ -13548,7 +13574,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>287</v>
       </c>
@@ -13583,7 +13609,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>287</v>
       </c>
@@ -13618,7 +13644,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>287</v>
       </c>
@@ -13653,7 +13679,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>287</v>
       </c>
@@ -13688,7 +13714,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>287</v>
       </c>
@@ -13723,7 +13749,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>287</v>
       </c>
@@ -13758,7 +13784,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -13793,7 +13819,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>287</v>
       </c>
@@ -13828,7 +13854,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>287</v>
       </c>
@@ -13863,7 +13889,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>287</v>
       </c>
@@ -13898,7 +13924,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>287</v>
       </c>
@@ -13933,7 +13959,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>287</v>
       </c>
@@ -13968,7 +13994,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>287</v>
       </c>
@@ -14003,7 +14029,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>287</v>
       </c>
@@ -14038,7 +14064,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>287</v>
       </c>
@@ -14073,7 +14099,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>287</v>
       </c>
@@ -14108,7 +14134,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>287</v>
       </c>
@@ -14143,7 +14169,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>287</v>
       </c>
@@ -14178,7 +14204,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>287</v>
       </c>
@@ -14213,7 +14239,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>287</v>
       </c>
@@ -14248,7 +14274,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>287</v>
       </c>
@@ -14283,7 +14309,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>287</v>
       </c>
@@ -14318,7 +14344,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>287</v>
       </c>
@@ -14353,7 +14379,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>287</v>
       </c>
@@ -14388,7 +14414,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>287</v>
       </c>
@@ -14423,7 +14449,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>287</v>
       </c>
@@ -14458,7 +14484,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>287</v>
       </c>
@@ -14493,7 +14519,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>287</v>
       </c>
@@ -14528,7 +14554,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>287</v>
       </c>
@@ -14563,7 +14589,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>287</v>
       </c>
@@ -14598,7 +14624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>287</v>
       </c>
@@ -14633,7 +14659,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>287</v>
       </c>
@@ -14668,7 +14694,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>287</v>
       </c>
@@ -14703,7 +14729,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>287</v>
       </c>
@@ -14738,7 +14764,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>287</v>
       </c>
@@ -14773,7 +14799,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>287</v>
       </c>
@@ -14808,7 +14834,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>287</v>
       </c>
@@ -14843,7 +14869,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>287</v>
       </c>
@@ -14878,7 +14904,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>287</v>
       </c>
@@ -14913,7 +14939,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>287</v>
       </c>
@@ -14948,7 +14974,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>287</v>
       </c>
@@ -14983,7 +15009,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>287</v>
       </c>
@@ -15018,7 +15044,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>287</v>
       </c>
@@ -15053,7 +15079,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>287</v>
       </c>
@@ -15088,7 +15114,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>287</v>
       </c>
@@ -15123,7 +15149,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>287</v>
       </c>
@@ -15158,7 +15184,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>287</v>
       </c>
@@ -15193,7 +15219,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>287</v>
       </c>
@@ -15228,7 +15254,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>287</v>
       </c>
@@ -15263,7 +15289,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>287</v>
       </c>
@@ -15298,7 +15324,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>287</v>
       </c>
@@ -15333,7 +15359,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>287</v>
       </c>
@@ -15368,7 +15394,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>287</v>
       </c>
@@ -15403,7 +15429,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>287</v>
       </c>
@@ -15438,7 +15464,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>287</v>
       </c>
@@ -15473,7 +15499,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>287</v>
       </c>
@@ -15508,7 +15534,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>287</v>
       </c>
@@ -15543,7 +15569,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>287</v>
       </c>
@@ -15578,7 +15604,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>287</v>
       </c>
@@ -15613,7 +15639,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>287</v>
       </c>
@@ -15648,7 +15674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>287</v>
       </c>
@@ -15683,7 +15709,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>287</v>
       </c>
@@ -15718,7 +15744,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>287</v>
       </c>
@@ -15753,7 +15779,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>287</v>
       </c>
@@ -15788,7 +15814,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>287</v>
       </c>
@@ -15823,7 +15849,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>287</v>
       </c>
@@ -15858,7 +15884,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>287</v>
       </c>
@@ -15893,7 +15919,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>287</v>
       </c>
@@ -15928,7 +15954,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>287</v>
       </c>
@@ -15963,7 +15989,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>287</v>
       </c>
@@ -15998,7 +16024,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>287</v>
       </c>
@@ -16033,7 +16059,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>287</v>
       </c>
@@ -16068,7 +16094,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>287</v>
       </c>
@@ -16103,7 +16129,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>287</v>
       </c>
@@ -16138,7 +16164,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>287</v>
       </c>
@@ -16173,7 +16199,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>287</v>
       </c>
@@ -16208,7 +16234,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>287</v>
       </c>
@@ -16243,7 +16269,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>287</v>
       </c>
@@ -16278,7 +16304,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>287</v>
       </c>
@@ -16313,7 +16339,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>287</v>
       </c>
@@ -16348,7 +16374,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>287</v>
       </c>
@@ -16383,7 +16409,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>287</v>
       </c>
@@ -16418,7 +16444,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>287</v>
       </c>
@@ -16453,7 +16479,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>287</v>
       </c>
@@ -16488,7 +16514,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>287</v>
       </c>
@@ -16523,7 +16549,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>287</v>
       </c>
@@ -16558,7 +16584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>287</v>
       </c>
@@ -16593,7 +16619,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>287</v>
       </c>
@@ -16628,7 +16654,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>287</v>
       </c>
@@ -16663,7 +16689,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>287</v>
       </c>
@@ -16698,7 +16724,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>287</v>
       </c>
@@ -16733,7 +16759,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>287</v>
       </c>
@@ -16768,7 +16794,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>287</v>
       </c>
@@ -16803,7 +16829,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>287</v>
       </c>
@@ -16838,7 +16864,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>287</v>
       </c>
@@ -16873,7 +16899,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>287</v>
       </c>
@@ -16908,7 +16934,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>287</v>
       </c>
@@ -16943,7 +16969,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>287</v>
       </c>
@@ -16978,7 +17004,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>287</v>
       </c>
@@ -17013,7 +17039,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>287</v>
       </c>
@@ -17048,7 +17074,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>287</v>
       </c>
@@ -17083,7 +17109,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>287</v>
       </c>
@@ -17118,7 +17144,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>287</v>
       </c>
@@ -17153,7 +17179,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="385" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>287</v>
       </c>
@@ -17188,7 +17214,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="386" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>287</v>
       </c>
@@ -17223,7 +17249,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="387" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>287</v>
       </c>
@@ -17258,7 +17284,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>287</v>
       </c>
@@ -17293,7 +17319,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>287</v>
       </c>
@@ -17328,7 +17354,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="390" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>287</v>
       </c>
@@ -17363,7 +17389,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="391" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>287</v>
       </c>
@@ -17398,7 +17424,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>287</v>
       </c>
@@ -17433,7 +17459,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>287</v>
       </c>
@@ -17468,7 +17494,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>287</v>
       </c>
@@ -17503,7 +17529,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>287</v>
       </c>
@@ -17538,7 +17564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>287</v>
       </c>
@@ -17573,7 +17599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>287</v>
       </c>
@@ -17608,7 +17634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>287</v>
       </c>
@@ -17643,7 +17669,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>287</v>
       </c>
@@ -17678,7 +17704,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>287</v>
       </c>
@@ -17713,7 +17739,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>287</v>
       </c>
@@ -17748,7 +17774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>287</v>
       </c>
@@ -17783,7 +17809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="403" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>287</v>
       </c>
@@ -17818,7 +17844,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="404" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>287</v>
       </c>
@@ -17853,7 +17879,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>287</v>
       </c>
@@ -17888,7 +17914,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="406" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>287</v>
       </c>
@@ -17923,7 +17949,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>287</v>
       </c>
@@ -17958,7 +17984,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>287</v>
       </c>
@@ -17993,7 +18019,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="409" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>287</v>
       </c>
@@ -18028,7 +18054,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="410" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>287</v>
       </c>
@@ -18063,7 +18089,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>287</v>
       </c>
@@ -18098,7 +18124,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>287</v>
       </c>
@@ -18133,7 +18159,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="413" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>287</v>
       </c>
@@ -18168,7 +18194,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>287</v>
       </c>
@@ -18203,7 +18229,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="415" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>287</v>
       </c>
@@ -18238,7 +18264,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>287</v>
       </c>
@@ -18273,7 +18299,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="417" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>287</v>
       </c>
@@ -18308,7 +18334,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="418" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>287</v>
       </c>
@@ -18343,7 +18369,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="419" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>287</v>
       </c>
@@ -18378,7 +18404,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="420" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>287</v>
       </c>
@@ -18413,7 +18439,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="421" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>287</v>
       </c>
@@ -18448,7 +18474,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="422" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>287</v>
       </c>
@@ -18483,7 +18509,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="423" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>287</v>
       </c>
@@ -18518,7 +18544,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="424" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>287</v>
       </c>
@@ -18553,7 +18579,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="425" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>287</v>
       </c>
@@ -18588,7 +18614,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="426" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>287</v>
       </c>
@@ -18623,7 +18649,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="427" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>287</v>
       </c>
@@ -18658,7 +18684,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="428" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>287</v>
       </c>
@@ -18693,7 +18719,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="429" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>287</v>
       </c>
@@ -18728,7 +18754,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="430" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>287</v>
       </c>
@@ -18763,7 +18789,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="431" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>287</v>
       </c>
@@ -18798,7 +18824,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="432" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>287</v>
       </c>
@@ -18833,7 +18859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="433" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>287</v>
       </c>
@@ -18868,7 +18894,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="434" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>287</v>
       </c>
@@ -18903,7 +18929,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="435" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>287</v>
       </c>
@@ -18938,7 +18964,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="436" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>287</v>
       </c>
@@ -18973,7 +18999,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="437" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>287</v>
       </c>
@@ -19008,7 +19034,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="438" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>287</v>
       </c>
@@ -19043,7 +19069,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="439" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>287</v>
       </c>
@@ -19078,7 +19104,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="440" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>287</v>
       </c>
@@ -19113,7 +19139,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="441" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>287</v>
       </c>
@@ -19148,7 +19174,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="442" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>287</v>
       </c>
@@ -19183,7 +19209,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="443" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>287</v>
       </c>
@@ -19218,7 +19244,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="444" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>287</v>
       </c>
@@ -19253,7 +19279,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="445" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>287</v>
       </c>
@@ -19288,7 +19314,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="446" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>287</v>
       </c>
@@ -19323,7 +19349,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="447" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>287</v>
       </c>
@@ -19358,7 +19384,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="448" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>287</v>
       </c>
@@ -19393,7 +19419,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="449" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>287</v>
       </c>
@@ -19428,7 +19454,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="450" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>287</v>
       </c>
@@ -19463,7 +19489,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="451" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>287</v>
       </c>
@@ -19498,7 +19524,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="452" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>287</v>
       </c>
@@ -19533,7 +19559,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="453" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>287</v>
       </c>
@@ -19568,7 +19594,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="454" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>287</v>
       </c>
@@ -19603,7 +19629,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="455" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>287</v>
       </c>
@@ -19638,7 +19664,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="456" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>287</v>
       </c>
@@ -19673,7 +19699,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="457" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>287</v>
       </c>
@@ -19708,7 +19734,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="458" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>287</v>
       </c>
@@ -19743,7 +19769,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="459" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>287</v>
       </c>
@@ -19778,7 +19804,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="460" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>287</v>
       </c>
@@ -19813,7 +19839,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="461" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>287</v>
       </c>
@@ -19848,7 +19874,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="462" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>287</v>
       </c>
@@ -19883,7 +19909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="463" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>287</v>
       </c>
@@ -19918,7 +19944,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="464" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>287</v>
       </c>
@@ -19953,7 +19979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="465" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>287</v>
       </c>
@@ -19988,7 +20014,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="466" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>287</v>
       </c>
@@ -20023,7 +20049,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="467" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>287</v>
       </c>
@@ -20058,7 +20084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="468" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>287</v>
       </c>
@@ -20093,7 +20119,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="469" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>287</v>
       </c>
@@ -20128,7 +20154,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="470" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>287</v>
       </c>
@@ -20163,7 +20189,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="471" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>287</v>
       </c>
@@ -20198,7 +20224,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="472" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>287</v>
       </c>
@@ -20233,7 +20259,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="473" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>287</v>
       </c>
@@ -20268,7 +20294,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="474" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>287</v>
       </c>
@@ -20303,7 +20329,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="475" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>287</v>
       </c>
@@ -20338,7 +20364,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="476" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>287</v>
       </c>
@@ -20373,7 +20399,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="477" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>287</v>
       </c>
@@ -20408,7 +20434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="478" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>287</v>
       </c>
@@ -20443,7 +20469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="479" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>287</v>
       </c>
@@ -20478,7 +20504,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="480" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>287</v>
       </c>
@@ -20513,7 +20539,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="481" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>287</v>
       </c>
@@ -20548,7 +20574,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="482" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>287</v>
       </c>
@@ -20583,7 +20609,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="483" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>287</v>
       </c>
@@ -20618,7 +20644,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="484" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>287</v>
       </c>
@@ -20653,7 +20679,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="485" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>287</v>
       </c>
@@ -20688,7 +20714,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="486" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>287</v>
       </c>
@@ -20723,7 +20749,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="487" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>287</v>
       </c>
@@ -20758,7 +20784,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="488" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>287</v>
       </c>
@@ -20793,7 +20819,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="489" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>287</v>
       </c>
@@ -20828,7 +20854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="490" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>287</v>
       </c>
@@ -20863,7 +20889,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="491" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>287</v>
       </c>
@@ -20898,7 +20924,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="492" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>287</v>
       </c>
@@ -20933,7 +20959,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="493" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>287</v>
       </c>
@@ -20968,7 +20994,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="494" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>287</v>
       </c>
@@ -21003,7 +21029,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="495" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>287</v>
       </c>
@@ -21038,7 +21064,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="496" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>287</v>
       </c>
@@ -21073,7 +21099,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="497" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>287</v>
       </c>
@@ -21108,7 +21134,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="498" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>287</v>
       </c>
@@ -21143,7 +21169,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="499" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>287</v>
       </c>
@@ -21178,7 +21204,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="500" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>287</v>
       </c>
@@ -21213,7 +21239,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="501" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>287</v>
       </c>
@@ -21248,7 +21274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="502" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>287</v>
       </c>
@@ -21283,7 +21309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="503" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>287</v>
       </c>
@@ -21318,7 +21344,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="504" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>287</v>
       </c>
@@ -21353,7 +21379,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="505" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>287</v>
       </c>
@@ -21388,7 +21414,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="506" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>287</v>
       </c>
@@ -21423,7 +21449,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="507" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>287</v>
       </c>
@@ -21458,7 +21484,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="508" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>287</v>
       </c>
@@ -21493,7 +21519,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="509" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>287</v>
       </c>
@@ -21528,7 +21554,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="510" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>287</v>
       </c>
@@ -21563,7 +21589,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="511" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>287</v>
       </c>
@@ -21598,7 +21624,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="512" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>287</v>
       </c>
@@ -21633,7 +21659,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="513" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>287</v>
       </c>
@@ -21668,7 +21694,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="514" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>287</v>
       </c>
@@ -21703,7 +21729,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="515" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>287</v>
       </c>
@@ -21738,7 +21764,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="516" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>287</v>
       </c>
@@ -21773,7 +21799,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="517" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>287</v>
       </c>
@@ -21808,7 +21834,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="518" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>287</v>
       </c>
@@ -21843,7 +21869,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="519" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>287</v>
       </c>
@@ -21878,7 +21904,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="520" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>287</v>
       </c>
@@ -21913,7 +21939,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="521" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>287</v>
       </c>
@@ -21948,7 +21974,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="522" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>287</v>
       </c>
@@ -21983,7 +22009,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="523" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>287</v>
       </c>
@@ -22018,7 +22044,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="524" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>287</v>
       </c>
@@ -22053,7 +22079,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="525" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>287</v>
       </c>
@@ -22088,7 +22114,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="526" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>287</v>
       </c>
@@ -22123,7 +22149,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="527" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>287</v>
       </c>
@@ -22158,7 +22184,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="528" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>287</v>
       </c>
@@ -22193,7 +22219,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="529" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>287</v>
       </c>
@@ -22228,7 +22254,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="530" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>287</v>
       </c>
@@ -22263,7 +22289,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="531" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>287</v>
       </c>
@@ -22298,7 +22324,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="532" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>287</v>
       </c>
@@ -22333,7 +22359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="533" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>287</v>
       </c>
@@ -22368,7 +22394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="534" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>287</v>
       </c>
@@ -22403,7 +22429,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="535" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>287</v>
       </c>
@@ -22438,7 +22464,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="536" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>287</v>
       </c>
@@ -22473,7 +22499,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="537" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>287</v>
       </c>
@@ -22508,7 +22534,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="538" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>287</v>
       </c>
@@ -22543,7 +22569,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="539" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>287</v>
       </c>
@@ -22578,7 +22604,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="540" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>287</v>
       </c>
@@ -22613,7 +22639,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="541" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>287</v>
       </c>
@@ -22648,7 +22674,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="542" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>287</v>
       </c>
@@ -22683,7 +22709,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="543" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>287</v>
       </c>
@@ -22718,7 +22744,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="544" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>287</v>
       </c>
@@ -22753,7 +22779,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="545" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>287</v>
       </c>
@@ -22788,7 +22814,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="546" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>287</v>
       </c>
@@ -22823,7 +22849,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="547" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>287</v>
       </c>
@@ -22858,7 +22884,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="548" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>287</v>
       </c>
@@ -22893,7 +22919,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="549" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>287</v>
       </c>
@@ -22928,7 +22954,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="550" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>673</v>
       </c>
@@ -22963,7 +22989,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="551" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>673</v>
       </c>
@@ -22998,7 +23024,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="552" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>673</v>
       </c>
@@ -23033,7 +23059,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="553" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>673</v>
       </c>
@@ -23068,7 +23094,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="554" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>673</v>
       </c>
@@ -23103,7 +23129,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="555" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>673</v>
       </c>
@@ -23138,7 +23164,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="556" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>673</v>
       </c>
@@ -23173,7 +23199,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="557" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>673</v>
       </c>
@@ -23208,7 +23234,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="558" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>673</v>
       </c>
@@ -23243,7 +23269,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="559" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>673</v>
       </c>
@@ -23278,7 +23304,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="560" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>673</v>
       </c>
@@ -23313,7 +23339,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="561" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>673</v>
       </c>
@@ -23348,7 +23374,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="562" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>686</v>
       </c>
@@ -23383,7 +23409,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="563" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>686</v>
       </c>
@@ -23418,7 +23444,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="564" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>686</v>
       </c>
@@ -23453,7 +23479,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="565" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>686</v>
       </c>
@@ -23488,7 +23514,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="566" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>686</v>
       </c>
@@ -23523,7 +23549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="567" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>686</v>
       </c>
@@ -23558,7 +23584,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="568" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>686</v>
       </c>
@@ -23593,7 +23619,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="569" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>686</v>
       </c>
@@ -23628,7 +23654,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="570" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>686</v>
       </c>
@@ -23663,7 +23689,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="571" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>686</v>
       </c>
@@ -23698,7 +23724,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="572" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>686</v>
       </c>
@@ -23733,7 +23759,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="573" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>686</v>
       </c>
@@ -23768,7 +23794,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="574" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>686</v>
       </c>
@@ -23803,7 +23829,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="575" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>686</v>
       </c>
@@ -23838,7 +23864,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="576" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>686</v>
       </c>
@@ -23873,7 +23899,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="577" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>686</v>
       </c>
@@ -23908,7 +23934,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="578" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>686</v>
       </c>
@@ -23943,7 +23969,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="579" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>686</v>
       </c>
@@ -23978,7 +24004,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="580" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>686</v>
       </c>
@@ -24013,7 +24039,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="581" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>686</v>
       </c>
@@ -24048,7 +24074,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="582" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>686</v>
       </c>
@@ -24083,7 +24109,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="583" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>686</v>
       </c>
@@ -24118,7 +24144,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="584" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>686</v>
       </c>
@@ -24153,7 +24179,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="585" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>686</v>
       </c>
@@ -24188,7 +24214,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="586" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>686</v>
       </c>
@@ -24223,7 +24249,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="587" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>686</v>
       </c>
@@ -24258,7 +24284,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="588" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>686</v>
       </c>
@@ -24293,7 +24319,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="589" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>686</v>
       </c>
@@ -24328,7 +24354,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="590" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>686</v>
       </c>
@@ -24363,7 +24389,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="591" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>686</v>
       </c>
@@ -24398,7 +24424,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="592" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>686</v>
       </c>
@@ -24433,7 +24459,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="593" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>686</v>
       </c>
@@ -24468,7 +24494,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="594" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>686</v>
       </c>
@@ -24503,7 +24529,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="595" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>686</v>
       </c>
@@ -24538,7 +24564,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="596" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>686</v>
       </c>
@@ -24573,7 +24599,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="597" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>686</v>
       </c>
@@ -24608,7 +24634,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="598" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>686</v>
       </c>
@@ -24643,7 +24669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="599" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>686</v>
       </c>
@@ -24678,7 +24704,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="600" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>686</v>
       </c>
@@ -24713,7 +24739,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="601" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>686</v>
       </c>
@@ -24748,7 +24774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="602" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>686</v>
       </c>
@@ -24783,7 +24809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="603" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>686</v>
       </c>
@@ -24818,7 +24844,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="604" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>686</v>
       </c>
@@ -24853,7 +24879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="605" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>686</v>
       </c>
@@ -24888,7 +24914,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="606" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>686</v>
       </c>
@@ -24923,7 +24949,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="607" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>686</v>
       </c>
@@ -24958,7 +24984,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="608" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>686</v>
       </c>
@@ -24993,7 +25019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="609" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>686</v>
       </c>
@@ -25028,7 +25054,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="610" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>686</v>
       </c>
@@ -25063,7 +25089,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="611" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>686</v>
       </c>
@@ -25098,7 +25124,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="612" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>686</v>
       </c>
@@ -25133,7 +25159,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="613" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>686</v>
       </c>
@@ -25168,7 +25194,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="614" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>686</v>
       </c>
@@ -25203,7 +25229,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="615" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>686</v>
       </c>
@@ -25238,7 +25264,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="616" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>686</v>
       </c>
@@ -25273,7 +25299,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="617" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>686</v>
       </c>
@@ -25308,7 +25334,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="618" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>686</v>
       </c>
@@ -25343,7 +25369,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="619" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>686</v>
       </c>
@@ -25378,7 +25404,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="620" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>686</v>
       </c>
@@ -25413,7 +25439,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="621" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>686</v>
       </c>
@@ -25448,7 +25474,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="622" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>686</v>
       </c>
@@ -25483,7 +25509,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="623" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>686</v>
       </c>
@@ -25518,7 +25544,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="624" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>686</v>
       </c>
@@ -25553,7 +25579,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="625" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>686</v>
       </c>
@@ -25588,7 +25614,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="626" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>686</v>
       </c>
@@ -25623,7 +25649,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="627" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>686</v>
       </c>
@@ -25658,7 +25684,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="628" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>686</v>
       </c>
@@ -25693,7 +25719,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="629" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>686</v>
       </c>
@@ -25728,7 +25754,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="630" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>686</v>
       </c>
@@ -25763,7 +25789,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="631" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>686</v>
       </c>
@@ -27058,7 +27084,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="668" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>807</v>
       </c>
@@ -27093,7 +27119,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="669" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>807</v>
       </c>
@@ -27128,7 +27154,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="670" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>807</v>
       </c>
@@ -27163,7 +27189,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="671" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>807</v>
       </c>
@@ -27198,7 +27224,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="672" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>807</v>
       </c>
@@ -27233,7 +27259,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="673" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>807</v>
       </c>
@@ -27268,7 +27294,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="674" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>807</v>
       </c>
@@ -27303,7 +27329,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="675" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>807</v>
       </c>
@@ -27338,7 +27364,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="676" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>807</v>
       </c>
@@ -27373,7 +27399,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="677" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>807</v>
       </c>
@@ -27408,7 +27434,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="678" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>807</v>
       </c>
@@ -27443,7 +27469,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="679" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>807</v>
       </c>
@@ -27478,7 +27504,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="680" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>807</v>
       </c>
@@ -27513,7 +27539,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="681" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>807</v>
       </c>
@@ -27548,7 +27574,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="682" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>807</v>
       </c>
@@ -27583,7 +27609,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="683" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>807</v>
       </c>
@@ -27618,7 +27644,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="684" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>807</v>
       </c>
@@ -27653,7 +27679,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="685" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>807</v>
       </c>
@@ -27688,7 +27714,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="686" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>807</v>
       </c>
@@ -27723,7 +27749,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="687" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>807</v>
       </c>
@@ -27758,7 +27784,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="688" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>807</v>
       </c>
@@ -27793,7 +27819,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="689" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>807</v>
       </c>
@@ -27828,7 +27854,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="690" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>807</v>
       </c>
@@ -27863,7 +27889,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="691" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>807</v>
       </c>
@@ -27898,7 +27924,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="692" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>807</v>
       </c>
@@ -27933,7 +27959,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="693" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>807</v>
       </c>
@@ -27968,7 +27994,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="694" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>807</v>
       </c>
@@ -28003,7 +28029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="695" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>807</v>
       </c>
@@ -28038,7 +28064,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="696" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>807</v>
       </c>
@@ -28073,7 +28099,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="697" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>807</v>
       </c>
@@ -28108,7 +28134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="698" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>807</v>
       </c>
@@ -28143,7 +28169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="699" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>807</v>
       </c>
@@ -28178,7 +28204,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="700" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>807</v>
       </c>
@@ -28213,7 +28239,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="701" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>807</v>
       </c>
@@ -28248,7 +28274,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="702" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>807</v>
       </c>
@@ -28283,7 +28309,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="703" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>807</v>
       </c>
@@ -28318,7 +28344,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="704" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>807</v>
       </c>
@@ -28353,7 +28379,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="705" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>807</v>
       </c>
@@ -28388,7 +28414,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="706" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>807</v>
       </c>
@@ -28423,7 +28449,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="707" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>807</v>
       </c>
@@ -28458,7 +28484,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="708" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>807</v>
       </c>
@@ -28493,7 +28519,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="709" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>807</v>
       </c>
@@ -28528,7 +28554,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="710" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>807</v>
       </c>
@@ -28563,7 +28589,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="711" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>807</v>
       </c>
@@ -28598,7 +28624,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="712" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>807</v>
       </c>
@@ -28633,7 +28659,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="713" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>807</v>
       </c>
@@ -28668,7 +28694,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="714" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>807</v>
       </c>
@@ -28703,7 +28729,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="715" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>807</v>
       </c>
@@ -28738,7 +28764,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="716" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>807</v>
       </c>
@@ -28773,7 +28799,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="717" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>807</v>
       </c>
@@ -28808,7 +28834,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="718" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>807</v>
       </c>
@@ -28843,7 +28869,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="719" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>807</v>
       </c>
@@ -28878,7 +28904,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="720" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>807</v>
       </c>
@@ -28913,7 +28939,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="721" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>807</v>
       </c>
@@ -28948,7 +28974,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="722" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>807</v>
       </c>
@@ -28983,7 +29009,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="723" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>807</v>
       </c>
@@ -29018,7 +29044,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="724" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>807</v>
       </c>
@@ -29053,7 +29079,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="725" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>807</v>
       </c>
@@ -29088,7 +29114,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="726" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>807</v>
       </c>
@@ -29123,7 +29149,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="727" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>807</v>
       </c>
@@ -29158,7 +29184,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="728" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>807</v>
       </c>
@@ -29193,7 +29219,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="729" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>807</v>
       </c>
@@ -29228,7 +29254,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="730" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>807</v>
       </c>
@@ -29263,7 +29289,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="731" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>807</v>
       </c>
@@ -29298,7 +29324,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="732" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>807</v>
       </c>
@@ -29333,7 +29359,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="733" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>807</v>
       </c>
@@ -29368,7 +29394,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="734" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>807</v>
       </c>
@@ -29403,7 +29429,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="735" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>807</v>
       </c>
@@ -29438,7 +29464,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="736" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>807</v>
       </c>
@@ -29473,7 +29499,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="737" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>807</v>
       </c>
@@ -29508,7 +29534,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="738" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>807</v>
       </c>
@@ -29543,7 +29569,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="739" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>807</v>
       </c>
@@ -29578,7 +29604,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="740" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>807</v>
       </c>
@@ -29613,7 +29639,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="741" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>807</v>
       </c>
@@ -29648,7 +29674,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="742" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>807</v>
       </c>
@@ -29683,7 +29709,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="743" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>807</v>
       </c>
@@ -29718,7 +29744,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="744" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>807</v>
       </c>
@@ -29753,7 +29779,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="745" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>807</v>
       </c>
@@ -29788,7 +29814,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="746" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>807</v>
       </c>
@@ -29823,7 +29849,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="747" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>807</v>
       </c>
@@ -29858,7 +29884,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="748" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>807</v>
       </c>
@@ -29893,7 +29919,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="749" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>807</v>
       </c>
@@ -29928,7 +29954,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="750" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>807</v>
       </c>
@@ -29963,7 +29989,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="751" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>807</v>
       </c>
@@ -29998,7 +30024,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="752" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>807</v>
       </c>
@@ -30033,7 +30059,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="753" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>807</v>
       </c>
@@ -30068,7 +30094,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="754" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>807</v>
       </c>
@@ -30103,7 +30129,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="755" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>807</v>
       </c>
@@ -30138,7 +30164,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="756" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>807</v>
       </c>
@@ -30173,7 +30199,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="757" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>807</v>
       </c>
@@ -30208,7 +30234,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="758" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>807</v>
       </c>
@@ -30243,7 +30269,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="759" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>807</v>
       </c>
@@ -30278,7 +30304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="760" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>807</v>
       </c>
@@ -30313,7 +30339,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="761" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>807</v>
       </c>
@@ -30348,7 +30374,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="762" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>807</v>
       </c>
@@ -30383,7 +30409,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="763" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>807</v>
       </c>
@@ -30418,7 +30444,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="764" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>807</v>
       </c>
@@ -30453,7 +30479,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="765" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>807</v>
       </c>
@@ -30488,7 +30514,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="766" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>807</v>
       </c>
@@ -30523,7 +30549,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="767" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>807</v>
       </c>
@@ -30558,7 +30584,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="768" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>807</v>
       </c>
@@ -30593,7 +30619,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="769" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>807</v>
       </c>
@@ -30628,7 +30654,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="770" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>807</v>
       </c>
@@ -30663,7 +30689,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="771" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>807</v>
       </c>
@@ -30698,7 +30724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="772" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>807</v>
       </c>
@@ -30733,7 +30759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="773" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>807</v>
       </c>
@@ -30768,7 +30794,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="774" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>807</v>
       </c>
@@ -30803,7 +30829,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="775" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>807</v>
       </c>
@@ -30838,7 +30864,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="776" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>807</v>
       </c>
@@ -30873,7 +30899,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="777" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>807</v>
       </c>
@@ -30908,7 +30934,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="778" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>807</v>
       </c>
@@ -30943,7 +30969,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="779" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>807</v>
       </c>
@@ -30978,7 +31004,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="780" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>807</v>
       </c>
@@ -31013,7 +31039,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="781" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>807</v>
       </c>
@@ -31048,7 +31074,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="782" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>807</v>
       </c>
@@ -31083,7 +31109,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="783" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>807</v>
       </c>
@@ -31118,7 +31144,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="784" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>807</v>
       </c>
@@ -31153,7 +31179,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="785" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>807</v>
       </c>
@@ -31188,7 +31214,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="786" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>807</v>
       </c>
@@ -31223,7 +31249,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="787" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>807</v>
       </c>
@@ -31258,7 +31284,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="788" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>807</v>
       </c>
@@ -31293,7 +31319,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="789" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>807</v>
       </c>
@@ -31328,7 +31354,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="790" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>807</v>
       </c>
@@ -31363,7 +31389,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="791" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>807</v>
       </c>
@@ -31398,7 +31424,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="792" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>807</v>
       </c>
@@ -31433,7 +31459,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="793" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>807</v>
       </c>
@@ -31468,7 +31494,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="794" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>807</v>
       </c>
@@ -31503,7 +31529,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="795" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>807</v>
       </c>
@@ -31538,7 +31564,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="796" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>807</v>
       </c>
@@ -31573,7 +31599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="797" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>807</v>
       </c>
@@ -31608,7 +31634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="798" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>807</v>
       </c>
@@ -31643,7 +31669,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="799" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>807</v>
       </c>
@@ -31678,7 +31704,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="800" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>807</v>
       </c>
@@ -31713,7 +31739,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="801" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>807</v>
       </c>
@@ -31748,7 +31774,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="802" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>807</v>
       </c>
@@ -31783,7 +31809,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="803" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>807</v>
       </c>
@@ -31818,7 +31844,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="804" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>807</v>
       </c>
@@ -31853,7 +31879,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="805" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>807</v>
       </c>
@@ -31888,7 +31914,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="806" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>807</v>
       </c>
@@ -31923,7 +31949,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="807" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>807</v>
       </c>
@@ -31958,7 +31984,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="808" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>807</v>
       </c>
@@ -31993,7 +32019,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="809" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>807</v>
       </c>
@@ -32028,7 +32054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="810" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>807</v>
       </c>
@@ -32063,7 +32089,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="811" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>807</v>
       </c>
@@ -32098,7 +32124,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="812" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>807</v>
       </c>
@@ -32133,7 +32159,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="813" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>807</v>
       </c>
@@ -32168,7 +32194,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="814" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>807</v>
       </c>
@@ -32203,7 +32229,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="815" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>807</v>
       </c>
@@ -32238,7 +32264,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="816" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
         <v>807</v>
       </c>
@@ -32273,7 +32299,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="817" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>807</v>
       </c>
@@ -32308,7 +32334,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="818" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>807</v>
       </c>
@@ -32343,7 +32369,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="819" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>807</v>
       </c>
@@ -32378,7 +32404,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="820" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>807</v>
       </c>
@@ -32413,7 +32439,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="821" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>807</v>
       </c>
@@ -32448,7 +32474,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="822" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>807</v>
       </c>
@@ -32483,7 +32509,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="823" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>807</v>
       </c>
@@ -32518,7 +32544,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="824" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>807</v>
       </c>
@@ -32553,7 +32579,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="825" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>807</v>
       </c>
@@ -32588,7 +32614,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="826" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>807</v>
       </c>
@@ -32623,7 +32649,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="827" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>807</v>
       </c>
@@ -32658,7 +32684,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="828" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>807</v>
       </c>
@@ -32693,7 +32719,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="829" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>807</v>
       </c>
@@ -32728,7 +32754,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="830" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>807</v>
       </c>
@@ -32763,7 +32789,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="831" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>807</v>
       </c>
@@ -32798,7 +32824,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="832" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>807</v>
       </c>
@@ -32833,7 +32859,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="833" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>807</v>
       </c>
@@ -32868,7 +32894,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="834" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
         <v>807</v>
       </c>
@@ -32903,7 +32929,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="835" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
         <v>807</v>
       </c>
@@ -32938,7 +32964,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="836" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
         <v>807</v>
       </c>
@@ -32973,7 +32999,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="837" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
         <v>807</v>
       </c>
@@ -33008,7 +33034,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="838" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
         <v>807</v>
       </c>
@@ -33043,7 +33069,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="839" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>807</v>
       </c>
@@ -33078,7 +33104,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="840" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
         <v>807</v>
       </c>
@@ -33113,7 +33139,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="841" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>807</v>
       </c>
@@ -33148,7 +33174,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="842" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
         <v>807</v>
       </c>
@@ -33183,7 +33209,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="843" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
         <v>807</v>
       </c>
@@ -33218,7 +33244,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="844" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
         <v>807</v>
       </c>
@@ -33253,7 +33279,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="845" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>807</v>
       </c>
@@ -33288,7 +33314,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="846" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
         <v>807</v>
       </c>
@@ -33323,7 +33349,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="847" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
         <v>807</v>
       </c>
@@ -33358,7 +33384,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="848" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
         <v>807</v>
       </c>
@@ -33393,7 +33419,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="849" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
         <v>807</v>
       </c>
@@ -33428,7 +33454,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="850" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
         <v>807</v>
       </c>
@@ -33463,7 +33489,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="851" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
         <v>807</v>
       </c>
@@ -33498,7 +33524,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="852" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
         <v>807</v>
       </c>
@@ -33533,7 +33559,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="853" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
         <v>807</v>
       </c>
@@ -33568,7 +33594,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="854" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
         <v>807</v>
       </c>
@@ -33603,7 +33629,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="855" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
         <v>807</v>
       </c>
@@ -33638,7 +33664,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="856" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
         <v>807</v>
       </c>
@@ -33673,7 +33699,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="857" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
         <v>807</v>
       </c>
@@ -33708,7 +33734,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="858" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
         <v>807</v>
       </c>
@@ -33743,7 +33769,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="859" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
         <v>807</v>
       </c>
@@ -33778,7 +33804,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="860" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
         <v>807</v>
       </c>
@@ -33813,7 +33839,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="861" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
         <v>807</v>
       </c>
@@ -33848,7 +33874,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="862" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
         <v>807</v>
       </c>
@@ -33883,7 +33909,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="863" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
         <v>807</v>
       </c>
@@ -33918,7 +33944,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="864" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
         <v>807</v>
       </c>
@@ -33953,7 +33979,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="865" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
         <v>807</v>
       </c>
@@ -33988,7 +34014,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="866" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
         <v>807</v>
       </c>
@@ -34023,7 +34049,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="867" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
         <v>807</v>
       </c>
@@ -34058,7 +34084,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="868" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
         <v>807</v>
       </c>
@@ -34093,7 +34119,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="869" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
         <v>965</v>
       </c>
@@ -34128,7 +34154,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="870" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
         <v>965</v>
       </c>
@@ -34163,7 +34189,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="871" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
         <v>965</v>
       </c>
@@ -34198,7 +34224,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="872" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
         <v>965</v>
       </c>
@@ -34233,7 +34259,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="873" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
         <v>965</v>
       </c>
@@ -34268,7 +34294,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="874" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
         <v>965</v>
       </c>
@@ -34303,7 +34329,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="875" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
         <v>965</v>
       </c>
@@ -34338,7 +34364,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="876" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
         <v>965</v>
       </c>
@@ -34373,7 +34399,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="877" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
         <v>965</v>
       </c>
@@ -34408,7 +34434,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="878" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
         <v>965</v>
       </c>
@@ -34443,7 +34469,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="879" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
         <v>965</v>
       </c>
@@ -34478,7 +34504,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="880" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
         <v>965</v>
       </c>
@@ -34513,7 +34539,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="881" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
         <v>965</v>
       </c>
@@ -34548,7 +34574,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="882" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
         <v>965</v>
       </c>
@@ -34583,7 +34609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="883" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
         <v>965</v>
       </c>
@@ -34618,7 +34644,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="884" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
         <v>965</v>
       </c>
@@ -34653,7 +34679,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="885" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
         <v>965</v>
       </c>
@@ -34688,7 +34714,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="886" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
         <v>965</v>
       </c>
@@ -34723,7 +34749,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="887" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
         <v>965</v>
       </c>
@@ -34758,7 +34784,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="888" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
         <v>965</v>
       </c>
@@ -34793,7 +34819,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="889" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
         <v>965</v>
       </c>
@@ -34828,7 +34854,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="890" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
         <v>965</v>
       </c>
@@ -34863,7 +34889,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="891" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
         <v>965</v>
       </c>
@@ -34898,7 +34924,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="892" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
         <v>965</v>
       </c>
@@ -34933,7 +34959,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="893" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
         <v>965</v>
       </c>
@@ -34968,7 +34994,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="894" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
         <v>965</v>
       </c>
@@ -35003,7 +35029,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="895" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
         <v>965</v>
       </c>
@@ -35038,7 +35064,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="896" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
         <v>965</v>
       </c>
@@ -35073,7 +35099,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="897" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
         <v>965</v>
       </c>
@@ -35108,7 +35134,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="898" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
         <v>965</v>
       </c>
@@ -35143,7 +35169,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="899" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
         <v>965</v>
       </c>
@@ -35178,7 +35204,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="900" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
         <v>965</v>
       </c>
@@ -35213,7 +35239,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="901" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
         <v>965</v>
       </c>
@@ -35248,7 +35274,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="902" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
         <v>965</v>
       </c>
@@ -35283,7 +35309,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="903" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
         <v>965</v>
       </c>
@@ -35318,7 +35344,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="904" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
         <v>1001</v>
       </c>
@@ -35353,7 +35379,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="905" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
         <v>1001</v>
       </c>
@@ -35388,7 +35414,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="906" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
         <v>1001</v>
       </c>
@@ -35423,7 +35449,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="907" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
         <v>1001</v>
       </c>
@@ -35458,7 +35484,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="908" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
         <v>1001</v>
       </c>
@@ -35493,7 +35519,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="909" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A909" t="s">
         <v>1001</v>
       </c>
@@ -35528,7 +35554,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="910" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
         <v>1001</v>
       </c>
@@ -35563,7 +35589,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="911" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
         <v>1001</v>
       </c>
@@ -35598,7 +35624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="912" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
         <v>1001</v>
       </c>
@@ -35633,7 +35659,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="913" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
         <v>1001</v>
       </c>
@@ -35668,7 +35694,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="914" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
         <v>1001</v>
       </c>
@@ -35703,7 +35729,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="915" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
         <v>1017</v>
       </c>
@@ -35738,7 +35764,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="916" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A916" t="s">
         <v>1017</v>
       </c>
@@ -35773,7 +35799,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="917" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
         <v>1017</v>
       </c>
@@ -35808,7 +35834,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="918" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
         <v>1017</v>
       </c>
@@ -35843,7 +35869,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="919" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
         <v>1017</v>
       </c>
@@ -35878,7 +35904,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="920" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
         <v>1017</v>
       </c>
@@ -35913,7 +35939,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="921" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
         <v>1017</v>
       </c>
@@ -35948,7 +35974,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="922" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
         <v>1017</v>
       </c>
@@ -35983,7 +36009,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="923" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
         <v>1017</v>
       </c>
@@ -36018,7 +36044,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="924" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
         <v>1017</v>
       </c>
@@ -36053,7 +36079,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="925" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
         <v>1017</v>
       </c>
@@ -36088,7 +36114,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="926" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
         <v>1017</v>
       </c>
@@ -36123,7 +36149,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="927" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
         <v>1017</v>
       </c>
@@ -36158,7 +36184,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="928" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
         <v>1017</v>
       </c>
@@ -36193,7 +36219,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="929" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
         <v>1017</v>
       </c>
@@ -36228,7 +36254,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="930" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
         <v>1017</v>
       </c>
@@ -36263,7 +36289,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="931" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
         <v>1017</v>
       </c>
@@ -36298,7 +36324,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="932" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
         <v>1017</v>
       </c>
@@ -36333,7 +36359,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="933" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
         <v>1017</v>
       </c>
@@ -36368,7 +36394,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="934" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A934" t="s">
         <v>1017</v>
       </c>
@@ -36403,7 +36429,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="935" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
         <v>1017</v>
       </c>
@@ -36438,7 +36464,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="936" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
         <v>1017</v>
       </c>
@@ -36473,7 +36499,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="937" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A937" t="s">
         <v>1017</v>
       </c>
@@ -36508,7 +36534,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="938" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
         <v>1017</v>
       </c>
@@ -36543,7 +36569,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="939" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A939" t="s">
         <v>1017</v>
       </c>
@@ -36578,7 +36604,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="940" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
         <v>1017</v>
       </c>
@@ -36613,7 +36639,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="941" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A941" t="s">
         <v>1017</v>
       </c>
@@ -36648,7 +36674,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="942" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
         <v>1017</v>
       </c>
@@ -36683,7 +36709,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="943" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A943" t="s">
         <v>1048</v>
       </c>
@@ -36718,7 +36744,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="944" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
         <v>1048</v>
       </c>
@@ -36753,7 +36779,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="945" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
         <v>1048</v>
       </c>
@@ -36788,7 +36814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="946" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
         <v>1048</v>
       </c>
@@ -36823,7 +36849,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="947" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
         <v>1048</v>
       </c>
@@ -36858,7 +36884,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="948" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
         <v>1048</v>
       </c>
@@ -36893,7 +36919,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="949" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A949" t="s">
         <v>1048</v>
       </c>
@@ -36928,7 +36954,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="950" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
         <v>1048</v>
       </c>
@@ -36963,7 +36989,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="951" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
         <v>1048</v>
       </c>
@@ -36998,7 +37024,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="952" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A952" t="s">
         <v>1048</v>
       </c>
@@ -37033,7 +37059,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="953" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
         <v>1048</v>
       </c>
@@ -37068,7 +37094,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="954" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A954" t="s">
         <v>1048</v>
       </c>
@@ -37103,7 +37129,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="955" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
         <v>1048</v>
       </c>
@@ -37138,7 +37164,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="956" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
         <v>1048</v>
       </c>
@@ -37173,7 +37199,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="957" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
         <v>1048</v>
       </c>
@@ -37208,7 +37234,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="958" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A958" t="s">
         <v>1048</v>
       </c>
@@ -37243,7 +37269,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="959" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
         <v>1048</v>
       </c>
@@ -37278,7 +37304,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="960" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
         <v>1048</v>
       </c>
@@ -37313,7 +37339,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="961" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A961" t="s">
         <v>1048</v>
       </c>
@@ -37348,7 +37374,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="962" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
         <v>1048</v>
       </c>
@@ -37383,7 +37409,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="963" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A963" t="s">
         <v>1048</v>
       </c>
@@ -37418,7 +37444,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="964" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A964" t="s">
         <v>1048</v>
       </c>
@@ -37453,7 +37479,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="965" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
         <v>1048</v>
       </c>
@@ -37488,7 +37514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="966" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
         <v>1048</v>
       </c>
@@ -37523,7 +37549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="967" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
         <v>1048</v>
       </c>
@@ -37558,7 +37584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="968" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
         <v>1048</v>
       </c>
@@ -37593,7 +37619,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="969" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A969" t="s">
         <v>1048</v>
       </c>
@@ -37628,7 +37654,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="970" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A970" t="s">
         <v>1048</v>
       </c>
@@ -37663,7 +37689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="971" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
         <v>1048</v>
       </c>
@@ -37698,7 +37724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="972" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A972" t="s">
         <v>1048</v>
       </c>
@@ -37733,7 +37759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="973" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A973" t="s">
         <v>1048</v>
       </c>
@@ -37768,7 +37794,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="974" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
         <v>1048</v>
       </c>
@@ -37803,7 +37829,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="975" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
         <v>1048</v>
       </c>
@@ -37838,7 +37864,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="976" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
         <v>1048</v>
       </c>
@@ -37873,7 +37899,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="977" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
         <v>1048</v>
       </c>
@@ -37908,7 +37934,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="978" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
         <v>1048</v>
       </c>
@@ -37943,7 +37969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="979" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
         <v>1048</v>
       </c>
@@ -37978,7 +38004,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="980" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A980" t="s">
         <v>1048</v>
       </c>
@@ -38013,7 +38039,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="981" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A981" t="s">
         <v>1048</v>
       </c>
@@ -38048,7 +38074,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="982" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A982" t="s">
         <v>1048</v>
       </c>
@@ -38083,7 +38109,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="983" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A983" t="s">
         <v>1048</v>
       </c>
@@ -38118,7 +38144,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="984" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A984" t="s">
         <v>1048</v>
       </c>
@@ -38153,7 +38179,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="985" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A985" t="s">
         <v>1048</v>
       </c>
@@ -38188,7 +38214,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="986" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A986" t="s">
         <v>1048</v>
       </c>
@@ -38223,7 +38249,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="987" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A987" t="s">
         <v>1048</v>
       </c>
@@ -38258,7 +38284,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="988" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A988" t="s">
         <v>1048</v>
       </c>
@@ -38293,7 +38319,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="989" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A989" t="s">
         <v>1048</v>
       </c>
@@ -38328,7 +38354,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="990" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A990" t="s">
         <v>1048</v>
       </c>
@@ -38363,7 +38389,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="991" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A991" t="s">
         <v>1048</v>
       </c>
@@ -38398,7 +38424,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="992" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A992" t="s">
         <v>1048</v>
       </c>
@@ -38433,7 +38459,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="993" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A993" t="s">
         <v>1048</v>
       </c>
@@ -38468,7 +38494,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="994" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A994" t="s">
         <v>1048</v>
       </c>
@@ -38503,7 +38529,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="995" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A995" t="s">
         <v>1048</v>
       </c>
@@ -38538,7 +38564,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="996" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A996" t="s">
         <v>1048</v>
       </c>
@@ -38573,7 +38599,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="997" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A997" t="s">
         <v>1048</v>
       </c>
@@ -38608,7 +38634,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="998" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A998" t="s">
         <v>1065</v>
       </c>
@@ -38643,7 +38669,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="999" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A999" t="s">
         <v>1065</v>
       </c>
@@ -38678,7 +38704,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="1000" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1000" t="s">
         <v>1065</v>
       </c>
@@ -38713,7 +38739,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1001" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1001" t="s">
         <v>1065</v>
       </c>
@@ -38748,7 +38774,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="1002" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1002" t="s">
         <v>1065</v>
       </c>
@@ -38783,7 +38809,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="1003" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1003" t="s">
         <v>1074</v>
       </c>
@@ -38818,7 +38844,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1004" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1004" t="s">
         <v>1074</v>
       </c>
@@ -38853,7 +38879,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1005" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1005" t="s">
         <v>1074</v>
       </c>
@@ -38888,7 +38914,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="1006" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1006" t="s">
         <v>1074</v>
       </c>
@@ -38923,7 +38949,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="1007" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1007" t="s">
         <v>1065</v>
       </c>
@@ -38958,7 +38984,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="1008" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1008" t="s">
         <v>1065</v>
       </c>
@@ -38993,7 +39019,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="1009" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1009" t="s">
         <v>1065</v>
       </c>
@@ -39028,7 +39054,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1010" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1010" t="s">
         <v>1065</v>
       </c>
@@ -39063,7 +39089,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="1011" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1011" t="s">
         <v>1074</v>
       </c>
@@ -39098,7 +39124,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="1012" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1012" t="s">
         <v>1074</v>
       </c>
@@ -39133,7 +39159,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="1013" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1013" t="s">
         <v>1074</v>
       </c>
@@ -39168,7 +39194,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1014" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1014" t="s">
         <v>1074</v>
       </c>
@@ -39203,7 +39229,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1015" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1015" t="s">
         <v>1074</v>
       </c>
@@ -39238,7 +39264,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1016" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1016" t="s">
         <v>1074</v>
       </c>
@@ -39273,7 +39299,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="1017" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1017" t="s">
         <v>1074</v>
       </c>
@@ -39308,7 +39334,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="1018" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1018" t="s">
         <v>1074</v>
       </c>
@@ -39343,7 +39369,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="1019" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1019" t="s">
         <v>1074</v>
       </c>
@@ -39378,7 +39404,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="1020" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1020" t="s">
         <v>1074</v>
       </c>
@@ -39413,43 +39439,848 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1021" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1021" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1021">
+        <v>20301007</v>
+      </c>
       <c r="C1021" s="1">
-        <v>7123001010069</v>
+        <v>6124002010059</v>
       </c>
       <c r="D1021" t="s">
-        <v>226</v>
+        <v>1100</v>
       </c>
       <c r="E1021" t="s">
-        <v>9</v>
+        <v>171</v>
       </c>
       <c r="F1021" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="G1021" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="H1021" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="I1021" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="J1021" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="K1021" t="s">
-        <v>90</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1022" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1022">
+        <v>20301007</v>
+      </c>
+      <c r="C1022" s="1">
+        <v>6124002010028</v>
+      </c>
+      <c r="D1022" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E1022" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1022" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1022" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1022" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1022" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1022" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1022" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1023" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1023">
+        <v>20301007</v>
+      </c>
+      <c r="C1023" s="1">
+        <v>6124002010035</v>
+      </c>
+      <c r="D1023" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E1023" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1023" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1023" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1023" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1023" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1023" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1023" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1024" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1024">
+        <v>20301007</v>
+      </c>
+      <c r="C1024" s="1">
+        <v>6124002010042</v>
+      </c>
+      <c r="D1024" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E1024" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1024" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1024" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1024" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1024" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1024" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1024" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1025" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1025">
+        <v>20301007</v>
+      </c>
+      <c r="C1025" s="1">
+        <v>6124002010035</v>
+      </c>
+      <c r="D1025" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E1025" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1025" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1025" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1025" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1025" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1025" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1025" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1026" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1026">
+        <v>20301007</v>
+      </c>
+      <c r="C1026" s="1">
+        <v>6124002010042</v>
+      </c>
+      <c r="D1026" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E1026" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1026" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1026" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1026" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1026" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1026" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1026" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1027" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1027">
+        <v>20301007</v>
+      </c>
+      <c r="C1027" s="1">
+        <v>6124002010059</v>
+      </c>
+      <c r="D1027" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E1027" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1027" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1027" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1027" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1027" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1027" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1027" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1028" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1028">
+        <v>20301007</v>
+      </c>
+      <c r="C1028" s="1">
+        <v>6124002010028</v>
+      </c>
+      <c r="D1028" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E1028" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1028" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1028" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1028" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1028" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1028" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1028" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1029" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1029">
+        <v>20301007</v>
+      </c>
+      <c r="C1029" s="1">
+        <v>6124002010035</v>
+      </c>
+      <c r="D1029" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E1029" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1029" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1029" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1029" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1029" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1029" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1029" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1030" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1030">
+        <v>20301007</v>
+      </c>
+      <c r="C1030" s="1">
+        <v>6124002010042</v>
+      </c>
+      <c r="D1030" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E1030" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1030" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1030" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1030" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1030" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1030" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1030" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1031" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1031">
+        <v>20301007</v>
+      </c>
+      <c r="C1031" s="1">
+        <v>6124002010028</v>
+      </c>
+      <c r="D1031" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E1031" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1031" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1031" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1031" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1031" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1031" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1031" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1032" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1032">
+        <v>20301007</v>
+      </c>
+      <c r="C1032" s="1">
+        <v>6124002010035</v>
+      </c>
+      <c r="D1032" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E1032" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1032" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1032" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1032" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1032" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1032" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1032" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1033" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1033">
+        <v>20301007</v>
+      </c>
+      <c r="C1033" s="1">
+        <v>6124002010042</v>
+      </c>
+      <c r="D1033" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E1033" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1033" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1033" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1033" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1033" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1033" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1033" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1034" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1034">
+        <v>20301007</v>
+      </c>
+      <c r="C1034" s="1">
+        <v>6124002010059</v>
+      </c>
+      <c r="D1034" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E1034" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1034" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1034" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1034" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1034" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1034" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1034" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1035" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1035">
+        <v>20301007</v>
+      </c>
+      <c r="C1035" s="1">
+        <v>6124002010066</v>
+      </c>
+      <c r="D1035" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E1035" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1035" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1035" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1035" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1035" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1035" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1035" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1036" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1036">
+        <v>20301007</v>
+      </c>
+      <c r="C1036" s="1">
+        <v>6124002010028</v>
+      </c>
+      <c r="D1036" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E1036" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1036" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1036" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1036" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1036" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1036" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1036" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1037" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1037">
+        <v>20301007</v>
+      </c>
+      <c r="C1037" s="1">
+        <v>6124002010035</v>
+      </c>
+      <c r="D1037" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E1037" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1037" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1037" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1037" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1037" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1037" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1037" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1038" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1038">
+        <v>20301007</v>
+      </c>
+      <c r="C1038" s="1">
+        <v>6124002010042</v>
+      </c>
+      <c r="D1038" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E1038" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1038" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1038" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1038" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1038" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1038" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1038" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1039" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1039">
+        <v>20301007</v>
+      </c>
+      <c r="C1039" s="1">
+        <v>6124002010059</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E1039" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1039" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1039" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1039" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1039" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1039" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1039" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1040" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1040">
+        <v>20301007</v>
+      </c>
+      <c r="C1040" s="1">
+        <v>6124002010028</v>
+      </c>
+      <c r="D1040" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E1040" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1040" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1040" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1040" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1040" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1040" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1040" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1041" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1041">
+        <v>20301007</v>
+      </c>
+      <c r="C1041" s="1">
+        <v>6124002010035</v>
+      </c>
+      <c r="D1041" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E1041" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1041" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1041" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1041" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1041" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1041" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1041" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1042" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1042">
+        <v>20301007</v>
+      </c>
+      <c r="C1042" s="1">
+        <v>6124002010042</v>
+      </c>
+      <c r="D1042" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E1042" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1042" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1042" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1042" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1042" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1042" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1042" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1043" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1043">
+        <v>20301007</v>
+      </c>
+      <c r="C1043" s="1">
+        <v>6124002010059</v>
+      </c>
+      <c r="D1043" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E1043" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1043" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1043" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1043" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1043" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1043" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1043" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1044" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1044">
+        <v>20301007</v>
+      </c>
+      <c r="C1044" s="1">
+        <v>6124002010066</v>
+      </c>
+      <c r="D1044" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E1044" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1044" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1044" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1044" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1044" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1044" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1044" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1021" xr:uid="{9365272C-0459-4BC1-BEFE-6EFEC8BB175A}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="HIGH FIVE 1.0"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K1020" xr:uid="{9365272C-0459-4BC1-BEFE-6EFEC8BB175A}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/input/combos.xlsx
+++ b/input/combos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\andrerodrigues\projetos\licencas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A876C5-716F-4CD7-B7FE-90643626EEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5A027A-B05F-4DAB-80FF-E303D8234DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{311B407B-F149-4833-BA1A-AA9E48DB4D65}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9398" uniqueCount="1106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9506" uniqueCount="1109">
   <si>
     <t>MARCA</t>
   </si>
@@ -3357,6 +3357,15 @@
   </si>
   <si>
     <t>CONCEPT</t>
+  </si>
+  <si>
+    <t>ingles_elt_AZ_2024</t>
+  </si>
+  <si>
+    <t>Inglês ELT - AZ - 2024</t>
+  </si>
+  <si>
+    <t>IMAGINE AME Level 1 STUDENTS BOOK + OLP EBOOK STICKER</t>
   </si>
 </sst>
 </file>
@@ -3718,10 +3727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9365272C-0459-4BC1-BEFE-6EFEC8BB175A}">
-  <dimension ref="A1:K1044"/>
+  <dimension ref="A1:K1056"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C994" workbookViewId="0">
-      <selection activeCell="D1037" sqref="D1037"/>
+    <sheetView tabSelected="1" topLeftCell="C1027" workbookViewId="0">
+      <selection activeCell="D1061" sqref="D1061"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40279,6 +40288,426 @@
         <v>74</v>
       </c>
     </row>
+    <row r="1045" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1045" t="s">
+        <v>673</v>
+      </c>
+      <c r="B1045">
+        <v>10301007</v>
+      </c>
+      <c r="C1045" s="1">
+        <v>9780357650288</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>674</v>
+      </c>
+      <c r="E1045" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F1045" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G1045" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1045" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1045" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1045" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1045" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1046" t="s">
+        <v>673</v>
+      </c>
+      <c r="B1046">
+        <v>10301007</v>
+      </c>
+      <c r="C1046" s="1">
+        <v>9780357650295</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>675</v>
+      </c>
+      <c r="E1046" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F1046" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G1046" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1046" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1046" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1046" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1046" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1047" t="s">
+        <v>673</v>
+      </c>
+      <c r="B1047">
+        <v>10301007</v>
+      </c>
+      <c r="C1047" s="1">
+        <v>9780357650301</v>
+      </c>
+      <c r="D1047" t="s">
+        <v>676</v>
+      </c>
+      <c r="E1047" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F1047" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G1047" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1047" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1047" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1047" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1047" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1048" t="s">
+        <v>673</v>
+      </c>
+      <c r="B1048">
+        <v>10301007</v>
+      </c>
+      <c r="C1048" s="1">
+        <v>9780357544402</v>
+      </c>
+      <c r="D1048" t="s">
+        <v>677</v>
+      </c>
+      <c r="E1048" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F1048" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G1048" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1048" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1048" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1048" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1048" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1049" t="s">
+        <v>673</v>
+      </c>
+      <c r="B1049">
+        <v>10301007</v>
+      </c>
+      <c r="C1049" s="1">
+        <v>9780357544341</v>
+      </c>
+      <c r="D1049" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E1049" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F1049" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G1049" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1049" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1049" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1049" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1049" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1050" t="s">
+        <v>673</v>
+      </c>
+      <c r="B1050">
+        <v>10301007</v>
+      </c>
+      <c r="C1050" s="1">
+        <v>9780357544358</v>
+      </c>
+      <c r="D1050" t="s">
+        <v>679</v>
+      </c>
+      <c r="E1050" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F1050" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G1050" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1050" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1050" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1050" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1050" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1051" t="s">
+        <v>673</v>
+      </c>
+      <c r="B1051">
+        <v>10301007</v>
+      </c>
+      <c r="C1051" s="1">
+        <v>9780357544365</v>
+      </c>
+      <c r="D1051" t="s">
+        <v>680</v>
+      </c>
+      <c r="E1051" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F1051" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G1051" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1051" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1051" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1051" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1051" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1052" t="s">
+        <v>673</v>
+      </c>
+      <c r="B1052">
+        <v>10301007</v>
+      </c>
+      <c r="C1052" s="1">
+        <v>9780357544372</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>681</v>
+      </c>
+      <c r="E1052" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F1052" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G1052" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1052" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1052" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1052" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1052" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1053" t="s">
+        <v>673</v>
+      </c>
+      <c r="B1053">
+        <v>10301007</v>
+      </c>
+      <c r="C1053" s="1">
+        <v>9780357544389</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>682</v>
+      </c>
+      <c r="E1053" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F1053" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G1053" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1053" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1053" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1053" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1053" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1054" t="s">
+        <v>673</v>
+      </c>
+      <c r="B1054">
+        <v>10301007</v>
+      </c>
+      <c r="C1054" s="1">
+        <v>9780357544396</v>
+      </c>
+      <c r="D1054" t="s">
+        <v>683</v>
+      </c>
+      <c r="E1054" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F1054" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G1054" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1054" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1054" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1054" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1054" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1055" t="s">
+        <v>673</v>
+      </c>
+      <c r="B1055">
+        <v>10301007</v>
+      </c>
+      <c r="C1055" s="1">
+        <v>9780357426753</v>
+      </c>
+      <c r="D1055" t="s">
+        <v>684</v>
+      </c>
+      <c r="E1055" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F1055" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G1055" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1055" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1055" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1055" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1055" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1056" t="s">
+        <v>673</v>
+      </c>
+      <c r="B1056">
+        <v>10301007</v>
+      </c>
+      <c r="C1056" s="1">
+        <v>9780357426760</v>
+      </c>
+      <c r="D1056" t="s">
+        <v>685</v>
+      </c>
+      <c r="E1056" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F1056" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G1056" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1056" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1056" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1056" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1056" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K1020" xr:uid="{9365272C-0459-4BC1-BEFE-6EFEC8BB175A}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/input/combos.xlsx
+++ b/input/combos.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\andrerodrigues\projetos\licencas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5A027A-B05F-4DAB-80FF-E303D8234DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05BBAAC-9959-49B4-B7A8-E0CE16B47140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{311B407B-F149-4833-BA1A-AA9E48DB4D65}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{311B407B-F149-4833-BA1A-AA9E48DB4D65}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$K$1020</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$K$1056</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3431,9 +3431,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3471,7 +3471,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3577,7 +3577,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3719,7 +3719,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3727,10 +3727,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9365272C-0459-4BC1-BEFE-6EFEC8BB175A}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K1056"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1027" workbookViewId="0">
-      <selection activeCell="D1061" sqref="D1061"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G756" sqref="G756"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3783,7 +3784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3818,7 +3819,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3853,7 +3854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3888,7 +3889,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -3923,7 +3924,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3958,7 +3959,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -3993,7 +3994,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4028,7 +4029,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4063,7 +4064,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4098,7 +4099,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -4133,7 +4134,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -4168,7 +4169,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -4203,7 +4204,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -4238,7 +4239,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -4273,7 +4274,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -4308,7 +4309,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -4343,7 +4344,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -4378,7 +4379,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -4413,7 +4414,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -4448,7 +4449,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -4483,7 +4484,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -4518,7 +4519,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -4553,7 +4554,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -4588,7 +4589,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -4623,7 +4624,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -4658,7 +4659,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -4693,7 +4694,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -4728,7 +4729,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -4763,7 +4764,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -4798,7 +4799,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -4833,7 +4834,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -4868,7 +4869,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -4903,7 +4904,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -4938,7 +4939,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -4973,7 +4974,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -5008,7 +5009,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -5043,7 +5044,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -5078,7 +5079,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -5113,7 +5114,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -5148,7 +5149,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -5183,7 +5184,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -5218,7 +5219,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -5253,7 +5254,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -5288,7 +5289,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -5323,7 +5324,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -5358,7 +5359,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -5393,7 +5394,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -5428,7 +5429,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -5463,7 +5464,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -5498,7 +5499,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -5533,7 +5534,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -5568,7 +5569,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -5603,7 +5604,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -5638,7 +5639,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -5673,7 +5674,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -5708,7 +5709,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -5743,7 +5744,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -5778,7 +5779,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -5813,7 +5814,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -5848,7 +5849,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -5883,7 +5884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -5918,7 +5919,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -5953,7 +5954,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -5988,7 +5989,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -6023,7 +6024,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -6058,7 +6059,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -6093,7 +6094,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -6128,7 +6129,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -6163,7 +6164,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -6198,7 +6199,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -6233,7 +6234,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -6268,7 +6269,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -6303,7 +6304,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -6338,7 +6339,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -6373,7 +6374,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -6408,7 +6409,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -6443,7 +6444,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -6478,7 +6479,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -6513,7 +6514,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -6548,7 +6549,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -6583,7 +6584,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -6618,7 +6619,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -6653,7 +6654,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -6688,7 +6689,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -6723,7 +6724,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -6758,7 +6759,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -6793,7 +6794,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -6828,7 +6829,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -6863,7 +6864,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -6898,7 +6899,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -6933,7 +6934,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -6968,7 +6969,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -7003,7 +7004,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -7038,7 +7039,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -7073,7 +7074,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -7108,7 +7109,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -7143,7 +7144,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -7178,7 +7179,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -7213,7 +7214,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -7248,7 +7249,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -7283,7 +7284,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -7318,7 +7319,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -7353,7 +7354,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -7388,7 +7389,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -7423,7 +7424,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -7458,7 +7459,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -7493,7 +7494,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -7528,7 +7529,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -7563,7 +7564,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -7598,7 +7599,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -7633,7 +7634,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -7668,7 +7669,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -7703,7 +7704,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -7738,7 +7739,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -7773,7 +7774,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -7808,7 +7809,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -7843,7 +7844,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -7878,7 +7879,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -7913,7 +7914,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -7948,7 +7949,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>215</v>
       </c>
@@ -7983,7 +7984,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>215</v>
       </c>
@@ -8018,7 +8019,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>215</v>
       </c>
@@ -8053,7 +8054,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>215</v>
       </c>
@@ -8088,7 +8089,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>215</v>
       </c>
@@ -8123,7 +8124,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>215</v>
       </c>
@@ -8158,7 +8159,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>215</v>
       </c>
@@ -8193,7 +8194,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>215</v>
       </c>
@@ -8228,7 +8229,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>215</v>
       </c>
@@ -8263,7 +8264,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>215</v>
       </c>
@@ -8298,7 +8299,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>215</v>
       </c>
@@ -8333,7 +8334,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>215</v>
       </c>
@@ -8368,7 +8369,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>215</v>
       </c>
@@ -8403,7 +8404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>215</v>
       </c>
@@ -8438,7 +8439,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>215</v>
       </c>
@@ -8473,7 +8474,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>215</v>
       </c>
@@ -8508,7 +8509,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>215</v>
       </c>
@@ -8543,7 +8544,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>215</v>
       </c>
@@ -8578,7 +8579,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>215</v>
       </c>
@@ -8613,7 +8614,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>215</v>
       </c>
@@ -8648,7 +8649,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>215</v>
       </c>
@@ -8683,7 +8684,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>215</v>
       </c>
@@ -8718,7 +8719,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>215</v>
       </c>
@@ -8753,7 +8754,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>215</v>
       </c>
@@ -8788,7 +8789,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>215</v>
       </c>
@@ -8823,7 +8824,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>215</v>
       </c>
@@ -8858,7 +8859,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>215</v>
       </c>
@@ -8893,7 +8894,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>215</v>
       </c>
@@ -8928,7 +8929,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>244</v>
       </c>
@@ -8963,7 +8964,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>244</v>
       </c>
@@ -8998,7 +8999,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>244</v>
       </c>
@@ -9033,7 +9034,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>244</v>
       </c>
@@ -9068,7 +9069,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>244</v>
       </c>
@@ -9103,7 +9104,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>244</v>
       </c>
@@ -9138,7 +9139,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>244</v>
       </c>
@@ -9173,7 +9174,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>244</v>
       </c>
@@ -9208,7 +9209,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>244</v>
       </c>
@@ -9243,7 +9244,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>258</v>
       </c>
@@ -9278,7 +9279,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>258</v>
       </c>
@@ -9313,7 +9314,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>258</v>
       </c>
@@ -9348,7 +9349,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>258</v>
       </c>
@@ -9383,7 +9384,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>258</v>
       </c>
@@ -9418,7 +9419,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>258</v>
       </c>
@@ -9453,7 +9454,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>258</v>
       </c>
@@ -9488,7 +9489,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>258</v>
       </c>
@@ -9523,7 +9524,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>258</v>
       </c>
@@ -9558,7 +9559,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>268</v>
       </c>
@@ -9593,7 +9594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>268</v>
       </c>
@@ -9628,7 +9629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>268</v>
       </c>
@@ -9663,7 +9664,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>268</v>
       </c>
@@ -9698,7 +9699,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>268</v>
       </c>
@@ -9733,7 +9734,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>268</v>
       </c>
@@ -9768,7 +9769,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>268</v>
       </c>
@@ -9803,7 +9804,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>268</v>
       </c>
@@ -9838,7 +9839,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>268</v>
       </c>
@@ -9873,7 +9874,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>268</v>
       </c>
@@ -9908,7 +9909,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>268</v>
       </c>
@@ -9943,7 +9944,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>268</v>
       </c>
@@ -9978,7 +9979,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>268</v>
       </c>
@@ -10013,7 +10014,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>268</v>
       </c>
@@ -10048,7 +10049,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>268</v>
       </c>
@@ -10083,7 +10084,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>268</v>
       </c>
@@ -10118,7 +10119,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>268</v>
       </c>
@@ -10153,7 +10154,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>268</v>
       </c>
@@ -10188,7 +10189,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>287</v>
       </c>
@@ -10223,7 +10224,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>287</v>
       </c>
@@ -10258,7 +10259,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>287</v>
       </c>
@@ -10293,7 +10294,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>287</v>
       </c>
@@ -10328,7 +10329,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>287</v>
       </c>
@@ -10363,7 +10364,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>287</v>
       </c>
@@ -10398,7 +10399,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>287</v>
       </c>
@@ -10433,7 +10434,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>287</v>
       </c>
@@ -10468,7 +10469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>287</v>
       </c>
@@ -10503,7 +10504,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>287</v>
       </c>
@@ -10538,7 +10539,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>287</v>
       </c>
@@ -10573,7 +10574,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>287</v>
       </c>
@@ -10608,7 +10609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>287</v>
       </c>
@@ -10643,7 +10644,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>287</v>
       </c>
@@ -10678,7 +10679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>287</v>
       </c>
@@ -10713,7 +10714,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>287</v>
       </c>
@@ -10748,7 +10749,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>287</v>
       </c>
@@ -10783,7 +10784,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>287</v>
       </c>
@@ -10818,7 +10819,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>287</v>
       </c>
@@ -10853,7 +10854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>287</v>
       </c>
@@ -10888,7 +10889,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>287</v>
       </c>
@@ -10923,7 +10924,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>287</v>
       </c>
@@ -10958,7 +10959,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>287</v>
       </c>
@@ -10993,7 +10994,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>287</v>
       </c>
@@ -11028,7 +11029,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>287</v>
       </c>
@@ -11063,7 +11064,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>287</v>
       </c>
@@ -11098,7 +11099,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>287</v>
       </c>
@@ -11133,7 +11134,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>287</v>
       </c>
@@ -11168,7 +11169,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>287</v>
       </c>
@@ -11203,7 +11204,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>287</v>
       </c>
@@ -11238,7 +11239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>287</v>
       </c>
@@ -11273,7 +11274,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>287</v>
       </c>
@@ -11308,7 +11309,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>287</v>
       </c>
@@ -11343,7 +11344,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>287</v>
       </c>
@@ -11378,7 +11379,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>287</v>
       </c>
@@ -11413,7 +11414,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>287</v>
       </c>
@@ -11448,7 +11449,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>287</v>
       </c>
@@ -11483,7 +11484,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>287</v>
       </c>
@@ -11518,7 +11519,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>287</v>
       </c>
@@ -11553,7 +11554,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>287</v>
       </c>
@@ -11588,7 +11589,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>287</v>
       </c>
@@ -11623,7 +11624,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>287</v>
       </c>
@@ -11658,7 +11659,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>287</v>
       </c>
@@ -11693,7 +11694,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>287</v>
       </c>
@@ -11728,7 +11729,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>287</v>
       </c>
@@ -11763,7 +11764,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>287</v>
       </c>
@@ -11798,7 +11799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>287</v>
       </c>
@@ -11833,7 +11834,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>287</v>
       </c>
@@ -11868,7 +11869,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>287</v>
       </c>
@@ -11903,7 +11904,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>287</v>
       </c>
@@ -11938,7 +11939,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>287</v>
       </c>
@@ -11973,7 +11974,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>287</v>
       </c>
@@ -12008,7 +12009,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>287</v>
       </c>
@@ -12043,7 +12044,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>287</v>
       </c>
@@ -12078,7 +12079,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>287</v>
       </c>
@@ -12113,7 +12114,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>287</v>
       </c>
@@ -12148,7 +12149,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>287</v>
       </c>
@@ -12183,7 +12184,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>287</v>
       </c>
@@ -12218,7 +12219,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>287</v>
       </c>
@@ -12253,7 +12254,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>287</v>
       </c>
@@ -12288,7 +12289,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>287</v>
       </c>
@@ -12323,7 +12324,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>287</v>
       </c>
@@ -12358,7 +12359,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>287</v>
       </c>
@@ -12393,7 +12394,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>287</v>
       </c>
@@ -12428,7 +12429,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>287</v>
       </c>
@@ -12463,7 +12464,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>287</v>
       </c>
@@ -12498,7 +12499,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>287</v>
       </c>
@@ -12533,7 +12534,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>287</v>
       </c>
@@ -12568,7 +12569,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>287</v>
       </c>
@@ -12603,7 +12604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>287</v>
       </c>
@@ -12638,7 +12639,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>287</v>
       </c>
@@ -12673,7 +12674,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>287</v>
       </c>
@@ -12708,7 +12709,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>287</v>
       </c>
@@ -12743,7 +12744,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>287</v>
       </c>
@@ -12778,7 +12779,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>287</v>
       </c>
@@ -12813,7 +12814,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>287</v>
       </c>
@@ -12848,7 +12849,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>287</v>
       </c>
@@ -12883,7 +12884,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>287</v>
       </c>
@@ -12918,7 +12919,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>287</v>
       </c>
@@ -12953,7 +12954,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>287</v>
       </c>
@@ -12988,7 +12989,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>287</v>
       </c>
@@ -13023,7 +13024,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>287</v>
       </c>
@@ -13058,7 +13059,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>287</v>
       </c>
@@ -13093,7 +13094,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>287</v>
       </c>
@@ -13128,7 +13129,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>287</v>
       </c>
@@ -13163,7 +13164,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>287</v>
       </c>
@@ -13198,7 +13199,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>287</v>
       </c>
@@ -13233,7 +13234,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>287</v>
       </c>
@@ -13268,7 +13269,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>287</v>
       </c>
@@ -13303,7 +13304,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>287</v>
       </c>
@@ -13338,7 +13339,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>287</v>
       </c>
@@ -13373,7 +13374,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>287</v>
       </c>
@@ -13408,7 +13409,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>287</v>
       </c>
@@ -13443,7 +13444,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>287</v>
       </c>
@@ -13478,7 +13479,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>287</v>
       </c>
@@ -13513,7 +13514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>287</v>
       </c>
@@ -13548,7 +13549,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>287</v>
       </c>
@@ -13583,7 +13584,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>287</v>
       </c>
@@ -13618,7 +13619,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>287</v>
       </c>
@@ -13653,7 +13654,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>287</v>
       </c>
@@ -13688,7 +13689,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>287</v>
       </c>
@@ -13723,7 +13724,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>287</v>
       </c>
@@ -13758,7 +13759,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>287</v>
       </c>
@@ -13793,7 +13794,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -13828,7 +13829,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>287</v>
       </c>
@@ -13863,7 +13864,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>287</v>
       </c>
@@ -13898,7 +13899,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>287</v>
       </c>
@@ -13933,7 +13934,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>287</v>
       </c>
@@ -13968,7 +13969,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>287</v>
       </c>
@@ -14003,7 +14004,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>287</v>
       </c>
@@ -14038,7 +14039,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>287</v>
       </c>
@@ -14073,7 +14074,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>287</v>
       </c>
@@ -14108,7 +14109,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>287</v>
       </c>
@@ -14143,7 +14144,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>287</v>
       </c>
@@ -14178,7 +14179,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>287</v>
       </c>
@@ -14213,7 +14214,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>287</v>
       </c>
@@ -14248,7 +14249,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>287</v>
       </c>
@@ -14283,7 +14284,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>287</v>
       </c>
@@ -14318,7 +14319,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>287</v>
       </c>
@@ -14353,7 +14354,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>287</v>
       </c>
@@ -14388,7 +14389,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>287</v>
       </c>
@@ -14423,7 +14424,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>287</v>
       </c>
@@ -14458,7 +14459,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>287</v>
       </c>
@@ -14493,7 +14494,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>287</v>
       </c>
@@ -14528,7 +14529,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>287</v>
       </c>
@@ -14563,7 +14564,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>287</v>
       </c>
@@ -14598,7 +14599,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>287</v>
       </c>
@@ -14633,7 +14634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>287</v>
       </c>
@@ -14668,7 +14669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>287</v>
       </c>
@@ -14703,7 +14704,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>287</v>
       </c>
@@ -14738,7 +14739,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>287</v>
       </c>
@@ -14773,7 +14774,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>287</v>
       </c>
@@ -14808,7 +14809,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>287</v>
       </c>
@@ -14843,7 +14844,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>287</v>
       </c>
@@ -14878,7 +14879,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>287</v>
       </c>
@@ -14913,7 +14914,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>287</v>
       </c>
@@ -14948,7 +14949,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>287</v>
       </c>
@@ -14983,7 +14984,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>287</v>
       </c>
@@ -15018,7 +15019,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>287</v>
       </c>
@@ -15053,7 +15054,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>287</v>
       </c>
@@ -15088,7 +15089,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>287</v>
       </c>
@@ -15123,7 +15124,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>287</v>
       </c>
@@ -15158,7 +15159,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>287</v>
       </c>
@@ -15193,7 +15194,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>287</v>
       </c>
@@ -15228,7 +15229,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>287</v>
       </c>
@@ -15263,7 +15264,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>287</v>
       </c>
@@ -15298,7 +15299,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>287</v>
       </c>
@@ -15333,7 +15334,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>287</v>
       </c>
@@ -15368,7 +15369,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>287</v>
       </c>
@@ -15403,7 +15404,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>287</v>
       </c>
@@ -15438,7 +15439,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>287</v>
       </c>
@@ -15473,7 +15474,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>287</v>
       </c>
@@ -15508,7 +15509,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>287</v>
       </c>
@@ -15543,7 +15544,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>287</v>
       </c>
@@ -15578,7 +15579,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>287</v>
       </c>
@@ -15613,7 +15614,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>287</v>
       </c>
@@ -15648,7 +15649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>287</v>
       </c>
@@ -15683,7 +15684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>287</v>
       </c>
@@ -15718,7 +15719,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>287</v>
       </c>
@@ -15753,7 +15754,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>287</v>
       </c>
@@ -15788,7 +15789,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>287</v>
       </c>
@@ -15823,7 +15824,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>287</v>
       </c>
@@ -15858,7 +15859,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>287</v>
       </c>
@@ -15893,7 +15894,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>287</v>
       </c>
@@ -15928,7 +15929,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>287</v>
       </c>
@@ -15963,7 +15964,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>287</v>
       </c>
@@ -15998,7 +15999,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>287</v>
       </c>
@@ -16033,7 +16034,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>287</v>
       </c>
@@ -16068,7 +16069,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>287</v>
       </c>
@@ -16103,7 +16104,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>287</v>
       </c>
@@ -16138,7 +16139,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>287</v>
       </c>
@@ -16173,7 +16174,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>287</v>
       </c>
@@ -16208,7 +16209,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>287</v>
       </c>
@@ -16243,7 +16244,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>287</v>
       </c>
@@ -16278,7 +16279,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>287</v>
       </c>
@@ -16313,7 +16314,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>287</v>
       </c>
@@ -16348,7 +16349,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>287</v>
       </c>
@@ -16383,7 +16384,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>287</v>
       </c>
@@ -16418,7 +16419,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>287</v>
       </c>
@@ -16453,7 +16454,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>287</v>
       </c>
@@ -16488,7 +16489,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>287</v>
       </c>
@@ -16523,7 +16524,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>287</v>
       </c>
@@ -16558,7 +16559,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>287</v>
       </c>
@@ -16593,7 +16594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>287</v>
       </c>
@@ -16628,7 +16629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>287</v>
       </c>
@@ -16663,7 +16664,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>287</v>
       </c>
@@ -16698,7 +16699,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>287</v>
       </c>
@@ -16733,7 +16734,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>287</v>
       </c>
@@ -16768,7 +16769,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>287</v>
       </c>
@@ -16803,7 +16804,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>287</v>
       </c>
@@ -16838,7 +16839,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>287</v>
       </c>
@@ -16873,7 +16874,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>287</v>
       </c>
@@ -16908,7 +16909,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>287</v>
       </c>
@@ -16943,7 +16944,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>287</v>
       </c>
@@ -16978,7 +16979,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>287</v>
       </c>
@@ -17013,7 +17014,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>287</v>
       </c>
@@ -17048,7 +17049,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>287</v>
       </c>
@@ -17083,7 +17084,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>287</v>
       </c>
@@ -17118,7 +17119,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>287</v>
       </c>
@@ -17153,7 +17154,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>287</v>
       </c>
@@ -17188,7 +17189,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>287</v>
       </c>
@@ -17223,7 +17224,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>287</v>
       </c>
@@ -17258,7 +17259,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>287</v>
       </c>
@@ -17293,7 +17294,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>287</v>
       </c>
@@ -17328,7 +17329,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>287</v>
       </c>
@@ -17363,7 +17364,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>287</v>
       </c>
@@ -17398,7 +17399,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>287</v>
       </c>
@@ -17433,7 +17434,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>287</v>
       </c>
@@ -17468,7 +17469,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>287</v>
       </c>
@@ -17503,7 +17504,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>287</v>
       </c>
@@ -17538,7 +17539,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>287</v>
       </c>
@@ -17573,7 +17574,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>287</v>
       </c>
@@ -17608,7 +17609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>287</v>
       </c>
@@ -17643,7 +17644,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>287</v>
       </c>
@@ -17678,7 +17679,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>287</v>
       </c>
@@ -17713,7 +17714,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>287</v>
       </c>
@@ -17748,7 +17749,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>287</v>
       </c>
@@ -17783,7 +17784,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>287</v>
       </c>
@@ -17818,7 +17819,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>287</v>
       </c>
@@ -17853,7 +17854,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>287</v>
       </c>
@@ -17888,7 +17889,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>287</v>
       </c>
@@ -17923,7 +17924,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>287</v>
       </c>
@@ -17958,7 +17959,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>287</v>
       </c>
@@ -17993,7 +17994,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>287</v>
       </c>
@@ -18028,7 +18029,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>287</v>
       </c>
@@ -18063,7 +18064,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>287</v>
       </c>
@@ -18098,7 +18099,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>287</v>
       </c>
@@ -18133,7 +18134,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>287</v>
       </c>
@@ -18168,7 +18169,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>287</v>
       </c>
@@ -18203,7 +18204,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>287</v>
       </c>
@@ -18238,7 +18239,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>287</v>
       </c>
@@ -18273,7 +18274,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>287</v>
       </c>
@@ -18308,7 +18309,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>287</v>
       </c>
@@ -18343,7 +18344,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>287</v>
       </c>
@@ -18378,7 +18379,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>287</v>
       </c>
@@ -18413,7 +18414,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>287</v>
       </c>
@@ -18448,7 +18449,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>287</v>
       </c>
@@ -18483,7 +18484,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>287</v>
       </c>
@@ -18518,7 +18519,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>287</v>
       </c>
@@ -18553,7 +18554,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>287</v>
       </c>
@@ -18588,7 +18589,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>287</v>
       </c>
@@ -18623,7 +18624,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>287</v>
       </c>
@@ -18658,7 +18659,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>287</v>
       </c>
@@ -18693,7 +18694,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>287</v>
       </c>
@@ -18728,7 +18729,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>287</v>
       </c>
@@ -18763,7 +18764,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>287</v>
       </c>
@@ -18798,7 +18799,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>287</v>
       </c>
@@ -18833,7 +18834,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>287</v>
       </c>
@@ -18868,7 +18869,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>287</v>
       </c>
@@ -18903,7 +18904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>287</v>
       </c>
@@ -18938,7 +18939,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>287</v>
       </c>
@@ -18973,7 +18974,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>287</v>
       </c>
@@ -19008,7 +19009,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>287</v>
       </c>
@@ -19043,7 +19044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>287</v>
       </c>
@@ -19078,7 +19079,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>287</v>
       </c>
@@ -19113,7 +19114,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>287</v>
       </c>
@@ -19148,7 +19149,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>287</v>
       </c>
@@ -19183,7 +19184,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>287</v>
       </c>
@@ -19218,7 +19219,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>287</v>
       </c>
@@ -19253,7 +19254,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>287</v>
       </c>
@@ -19288,7 +19289,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>287</v>
       </c>
@@ -19323,7 +19324,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>287</v>
       </c>
@@ -19358,7 +19359,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>287</v>
       </c>
@@ -19393,7 +19394,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>287</v>
       </c>
@@ -19428,7 +19429,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>287</v>
       </c>
@@ -19463,7 +19464,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>287</v>
       </c>
@@ -19498,7 +19499,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>287</v>
       </c>
@@ -19533,7 +19534,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>287</v>
       </c>
@@ -19568,7 +19569,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>287</v>
       </c>
@@ -19603,7 +19604,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>287</v>
       </c>
@@ -19638,7 +19639,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>287</v>
       </c>
@@ -19673,7 +19674,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>287</v>
       </c>
@@ -19708,7 +19709,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>287</v>
       </c>
@@ -19743,7 +19744,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>287</v>
       </c>
@@ -19778,7 +19779,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>287</v>
       </c>
@@ -19813,7 +19814,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>287</v>
       </c>
@@ -19848,7 +19849,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>287</v>
       </c>
@@ -19883,7 +19884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>287</v>
       </c>
@@ -19918,7 +19919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>287</v>
       </c>
@@ -19953,7 +19954,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>287</v>
       </c>
@@ -19988,7 +19989,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>287</v>
       </c>
@@ -20023,7 +20024,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>287</v>
       </c>
@@ -20058,7 +20059,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>287</v>
       </c>
@@ -20093,7 +20094,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>287</v>
       </c>
@@ -20128,7 +20129,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>287</v>
       </c>
@@ -20163,7 +20164,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>287</v>
       </c>
@@ -20198,7 +20199,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>287</v>
       </c>
@@ -20233,7 +20234,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>287</v>
       </c>
@@ -20268,7 +20269,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>287</v>
       </c>
@@ -20303,7 +20304,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>287</v>
       </c>
@@ -20338,7 +20339,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>287</v>
       </c>
@@ -20373,7 +20374,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>287</v>
       </c>
@@ -20408,7 +20409,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>287</v>
       </c>
@@ -20443,7 +20444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>287</v>
       </c>
@@ -20478,7 +20479,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>287</v>
       </c>
@@ -20513,7 +20514,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>287</v>
       </c>
@@ -20548,7 +20549,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>287</v>
       </c>
@@ -20583,7 +20584,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>287</v>
       </c>
@@ -20618,7 +20619,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>287</v>
       </c>
@@ -20653,7 +20654,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>287</v>
       </c>
@@ -20688,7 +20689,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>287</v>
       </c>
@@ -20723,7 +20724,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>287</v>
       </c>
@@ -20758,7 +20759,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>287</v>
       </c>
@@ -20793,7 +20794,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>287</v>
       </c>
@@ -20828,7 +20829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>287</v>
       </c>
@@ -20863,7 +20864,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>287</v>
       </c>
@@ -20898,7 +20899,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>287</v>
       </c>
@@ -20933,7 +20934,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>287</v>
       </c>
@@ -20968,7 +20969,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>287</v>
       </c>
@@ -21003,7 +21004,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>287</v>
       </c>
@@ -21038,7 +21039,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>287</v>
       </c>
@@ -21073,7 +21074,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>287</v>
       </c>
@@ -21108,7 +21109,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>287</v>
       </c>
@@ -21143,7 +21144,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>287</v>
       </c>
@@ -21178,7 +21179,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>287</v>
       </c>
@@ -21213,7 +21214,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>287</v>
       </c>
@@ -21248,7 +21249,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>287</v>
       </c>
@@ -21283,7 +21284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>287</v>
       </c>
@@ -21318,7 +21319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>287</v>
       </c>
@@ -21353,7 +21354,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>287</v>
       </c>
@@ -21388,7 +21389,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>287</v>
       </c>
@@ -21423,7 +21424,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>287</v>
       </c>
@@ -21458,7 +21459,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>287</v>
       </c>
@@ -21493,7 +21494,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>287</v>
       </c>
@@ -21528,7 +21529,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>287</v>
       </c>
@@ -21563,7 +21564,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>287</v>
       </c>
@@ -21598,7 +21599,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>287</v>
       </c>
@@ -21633,7 +21634,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>287</v>
       </c>
@@ -21668,7 +21669,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>287</v>
       </c>
@@ -21703,7 +21704,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>287</v>
       </c>
@@ -21738,7 +21739,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>287</v>
       </c>
@@ -21773,7 +21774,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>287</v>
       </c>
@@ -21808,7 +21809,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>287</v>
       </c>
@@ -21843,7 +21844,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>287</v>
       </c>
@@ -21878,7 +21879,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>287</v>
       </c>
@@ -21913,7 +21914,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>287</v>
       </c>
@@ -21948,7 +21949,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>287</v>
       </c>
@@ -21983,7 +21984,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>287</v>
       </c>
@@ -22018,7 +22019,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>287</v>
       </c>
@@ -22053,7 +22054,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>287</v>
       </c>
@@ -22088,7 +22089,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>287</v>
       </c>
@@ -22123,7 +22124,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>287</v>
       </c>
@@ -22158,7 +22159,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>287</v>
       </c>
@@ -22193,7 +22194,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>287</v>
       </c>
@@ -22228,7 +22229,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>287</v>
       </c>
@@ -22263,7 +22264,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>287</v>
       </c>
@@ -22298,7 +22299,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>287</v>
       </c>
@@ -22333,7 +22334,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>287</v>
       </c>
@@ -22368,7 +22369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>287</v>
       </c>
@@ -22403,7 +22404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>287</v>
       </c>
@@ -22438,7 +22439,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>287</v>
       </c>
@@ -22473,7 +22474,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>287</v>
       </c>
@@ -22508,7 +22509,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>287</v>
       </c>
@@ -22543,7 +22544,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>287</v>
       </c>
@@ -22578,7 +22579,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>287</v>
       </c>
@@ -22613,7 +22614,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>287</v>
       </c>
@@ -22648,7 +22649,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>287</v>
       </c>
@@ -22683,7 +22684,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>287</v>
       </c>
@@ -22718,7 +22719,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>287</v>
       </c>
@@ -22753,7 +22754,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>287</v>
       </c>
@@ -22788,7 +22789,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>287</v>
       </c>
@@ -22823,7 +22824,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>287</v>
       </c>
@@ -22858,7 +22859,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>287</v>
       </c>
@@ -22893,7 +22894,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>287</v>
       </c>
@@ -22928,7 +22929,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>287</v>
       </c>
@@ -22963,7 +22964,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>673</v>
       </c>
@@ -22998,7 +22999,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>673</v>
       </c>
@@ -23033,7 +23034,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>673</v>
       </c>
@@ -23068,7 +23069,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>673</v>
       </c>
@@ -23103,7 +23104,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>673</v>
       </c>
@@ -23138,7 +23139,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>673</v>
       </c>
@@ -23173,7 +23174,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>673</v>
       </c>
@@ -23208,7 +23209,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>673</v>
       </c>
@@ -23243,7 +23244,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>673</v>
       </c>
@@ -23278,7 +23279,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>673</v>
       </c>
@@ -23313,7 +23314,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>673</v>
       </c>
@@ -23348,7 +23349,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>673</v>
       </c>
@@ -23383,7 +23384,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>686</v>
       </c>
@@ -23418,7 +23419,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>686</v>
       </c>
@@ -23453,7 +23454,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>686</v>
       </c>
@@ -23488,7 +23489,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>686</v>
       </c>
@@ -23523,7 +23524,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>686</v>
       </c>
@@ -23558,7 +23559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>686</v>
       </c>
@@ -23593,7 +23594,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>686</v>
       </c>
@@ -23628,7 +23629,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>686</v>
       </c>
@@ -23663,7 +23664,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>686</v>
       </c>
@@ -23698,7 +23699,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>686</v>
       </c>
@@ -23733,7 +23734,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>686</v>
       </c>
@@ -23768,7 +23769,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>686</v>
       </c>
@@ -23803,7 +23804,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>686</v>
       </c>
@@ -23838,7 +23839,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>686</v>
       </c>
@@ -23873,7 +23874,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>686</v>
       </c>
@@ -23908,7 +23909,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>686</v>
       </c>
@@ -23943,7 +23944,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>686</v>
       </c>
@@ -23978,7 +23979,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>686</v>
       </c>
@@ -24013,7 +24014,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>686</v>
       </c>
@@ -24048,7 +24049,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>686</v>
       </c>
@@ -24083,7 +24084,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>686</v>
       </c>
@@ -24118,7 +24119,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>686</v>
       </c>
@@ -24153,7 +24154,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>686</v>
       </c>
@@ -24188,7 +24189,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>686</v>
       </c>
@@ -24223,7 +24224,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>686</v>
       </c>
@@ -24258,7 +24259,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>686</v>
       </c>
@@ -24293,7 +24294,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>686</v>
       </c>
@@ -24328,7 +24329,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>686</v>
       </c>
@@ -24363,7 +24364,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>686</v>
       </c>
@@ -24398,7 +24399,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>686</v>
       </c>
@@ -24433,7 +24434,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>686</v>
       </c>
@@ -24468,7 +24469,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>686</v>
       </c>
@@ -24503,7 +24504,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>686</v>
       </c>
@@ -24538,7 +24539,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>686</v>
       </c>
@@ -24573,7 +24574,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>686</v>
       </c>
@@ -24608,7 +24609,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>686</v>
       </c>
@@ -24643,7 +24644,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>686</v>
       </c>
@@ -24678,7 +24679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>686</v>
       </c>
@@ -24713,7 +24714,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>686</v>
       </c>
@@ -24748,7 +24749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>686</v>
       </c>
@@ -24783,7 +24784,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>686</v>
       </c>
@@ -24818,7 +24819,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>686</v>
       </c>
@@ -24853,7 +24854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>686</v>
       </c>
@@ -24888,7 +24889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>686</v>
       </c>
@@ -24923,7 +24924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>686</v>
       </c>
@@ -24958,7 +24959,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>686</v>
       </c>
@@ -24993,7 +24994,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>686</v>
       </c>
@@ -25028,7 +25029,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>686</v>
       </c>
@@ -25063,7 +25064,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>686</v>
       </c>
@@ -25098,7 +25099,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>686</v>
       </c>
@@ -25133,7 +25134,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>686</v>
       </c>
@@ -25168,7 +25169,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>686</v>
       </c>
@@ -25203,7 +25204,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>686</v>
       </c>
@@ -25238,7 +25239,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>686</v>
       </c>
@@ -25273,7 +25274,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>686</v>
       </c>
@@ -25308,7 +25309,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>686</v>
       </c>
@@ -25343,7 +25344,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>686</v>
       </c>
@@ -25378,7 +25379,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>686</v>
       </c>
@@ -25413,7 +25414,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>686</v>
       </c>
@@ -25448,7 +25449,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>686</v>
       </c>
@@ -25483,7 +25484,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>686</v>
       </c>
@@ -25518,7 +25519,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>686</v>
       </c>
@@ -25553,7 +25554,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>686</v>
       </c>
@@ -25588,7 +25589,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>686</v>
       </c>
@@ -25623,7 +25624,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>686</v>
       </c>
@@ -25658,7 +25659,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>686</v>
       </c>
@@ -25693,7 +25694,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>686</v>
       </c>
@@ -25728,7 +25729,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>686</v>
       </c>
@@ -25763,7 +25764,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>686</v>
       </c>
@@ -25798,7 +25799,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>686</v>
       </c>
@@ -25833,7 +25834,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>759</v>
       </c>
@@ -25853,7 +25854,7 @@
         <v>762</v>
       </c>
       <c r="G632" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H632" t="s">
         <v>84</v>
@@ -25868,7 +25869,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>759</v>
       </c>
@@ -25903,7 +25904,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>759</v>
       </c>
@@ -25938,7 +25939,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>759</v>
       </c>
@@ -25973,7 +25974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>759</v>
       </c>
@@ -26008,7 +26009,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>759</v>
       </c>
@@ -26043,7 +26044,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>759</v>
       </c>
@@ -26078,7 +26079,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>759</v>
       </c>
@@ -26113,7 +26114,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>759</v>
       </c>
@@ -26148,7 +26149,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>759</v>
       </c>
@@ -26183,7 +26184,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>759</v>
       </c>
@@ -26218,7 +26219,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>759</v>
       </c>
@@ -26253,7 +26254,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>759</v>
       </c>
@@ -26273,7 +26274,7 @@
         <v>1097</v>
       </c>
       <c r="G644" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H644" t="s">
         <v>84</v>
@@ -26288,7 +26289,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>759</v>
       </c>
@@ -26323,7 +26324,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>759</v>
       </c>
@@ -26358,7 +26359,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>759</v>
       </c>
@@ -26393,7 +26394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>759</v>
       </c>
@@ -26428,7 +26429,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>759</v>
       </c>
@@ -26463,7 +26464,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>759</v>
       </c>
@@ -26498,7 +26499,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>759</v>
       </c>
@@ -26533,7 +26534,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>759</v>
       </c>
@@ -26568,7 +26569,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>759</v>
       </c>
@@ -26603,7 +26604,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>759</v>
       </c>
@@ -26638,7 +26639,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>759</v>
       </c>
@@ -26673,7 +26674,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>759</v>
       </c>
@@ -26708,7 +26709,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>759</v>
       </c>
@@ -26743,7 +26744,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>759</v>
       </c>
@@ -26778,7 +26779,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>759</v>
       </c>
@@ -26813,7 +26814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>759</v>
       </c>
@@ -26848,7 +26849,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>759</v>
       </c>
@@ -26883,7 +26884,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>759</v>
       </c>
@@ -26918,7 +26919,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>759</v>
       </c>
@@ -26953,7 +26954,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>759</v>
       </c>
@@ -26988,7 +26989,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>759</v>
       </c>
@@ -27023,7 +27024,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>759</v>
       </c>
@@ -27058,7 +27059,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>759</v>
       </c>
@@ -27128,7 +27129,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>807</v>
       </c>
@@ -27163,7 +27164,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>807</v>
       </c>
@@ -27198,7 +27199,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>807</v>
       </c>
@@ -27233,7 +27234,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>807</v>
       </c>
@@ -27268,7 +27269,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>807</v>
       </c>
@@ -27303,7 +27304,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>807</v>
       </c>
@@ -27338,7 +27339,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>807</v>
       </c>
@@ -27373,7 +27374,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>807</v>
       </c>
@@ -27408,7 +27409,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>807</v>
       </c>
@@ -27443,7 +27444,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>807</v>
       </c>
@@ -27478,7 +27479,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>807</v>
       </c>
@@ -27618,7 +27619,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>807</v>
       </c>
@@ -27653,7 +27654,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>807</v>
       </c>
@@ -27688,7 +27689,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>807</v>
       </c>
@@ -27723,7 +27724,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>807</v>
       </c>
@@ -27758,7 +27759,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>807</v>
       </c>
@@ -27793,7 +27794,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>807</v>
       </c>
@@ -27828,7 +27829,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>807</v>
       </c>
@@ -27863,7 +27864,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>807</v>
       </c>
@@ -27898,7 +27899,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>807</v>
       </c>
@@ -27933,7 +27934,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>807</v>
       </c>
@@ -27968,7 +27969,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>807</v>
       </c>
@@ -28003,7 +28004,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>807</v>
       </c>
@@ -28038,7 +28039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>807</v>
       </c>
@@ -28073,7 +28074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>807</v>
       </c>
@@ -28108,7 +28109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>807</v>
       </c>
@@ -28143,7 +28144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>807</v>
       </c>
@@ -28178,7 +28179,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>807</v>
       </c>
@@ -28213,7 +28214,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>807</v>
       </c>
@@ -28248,7 +28249,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>807</v>
       </c>
@@ -28283,7 +28284,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>807</v>
       </c>
@@ -28318,7 +28319,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>807</v>
       </c>
@@ -28353,7 +28354,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>807</v>
       </c>
@@ -28388,7 +28389,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>807</v>
       </c>
@@ -28423,7 +28424,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>807</v>
       </c>
@@ -28458,7 +28459,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>807</v>
       </c>
@@ -28493,7 +28494,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>807</v>
       </c>
@@ -28528,7 +28529,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>807</v>
       </c>
@@ -28563,7 +28564,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>807</v>
       </c>
@@ -28598,7 +28599,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>807</v>
       </c>
@@ -28633,7 +28634,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>807</v>
       </c>
@@ -28668,7 +28669,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>807</v>
       </c>
@@ -28703,7 +28704,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>807</v>
       </c>
@@ -28738,7 +28739,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>807</v>
       </c>
@@ -28773,7 +28774,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>807</v>
       </c>
@@ -28808,7 +28809,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>807</v>
       </c>
@@ -28843,7 +28844,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>807</v>
       </c>
@@ -28878,7 +28879,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>807</v>
       </c>
@@ -28913,7 +28914,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>807</v>
       </c>
@@ -28948,7 +28949,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>807</v>
       </c>
@@ -28983,7 +28984,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>807</v>
       </c>
@@ -29018,7 +29019,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>807</v>
       </c>
@@ -29053,7 +29054,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>807</v>
       </c>
@@ -29088,7 +29089,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>807</v>
       </c>
@@ -29158,7 +29159,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>807</v>
       </c>
@@ -29193,7 +29194,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>807</v>
       </c>
@@ -29228,7 +29229,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>807</v>
       </c>
@@ -29263,7 +29264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>807</v>
       </c>
@@ -29298,7 +29299,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>807</v>
       </c>
@@ -29333,7 +29334,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>807</v>
       </c>
@@ -29368,7 +29369,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>807</v>
       </c>
@@ -29403,7 +29404,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>807</v>
       </c>
@@ -29438,7 +29439,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>807</v>
       </c>
@@ -29473,7 +29474,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>807</v>
       </c>
@@ -29508,7 +29509,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>807</v>
       </c>
@@ -29578,7 +29579,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>807</v>
       </c>
@@ -29613,7 +29614,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>807</v>
       </c>
@@ -29648,7 +29649,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>807</v>
       </c>
@@ -29683,7 +29684,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>807</v>
       </c>
@@ -29718,7 +29719,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>807</v>
       </c>
@@ -29753,7 +29754,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>807</v>
       </c>
@@ -29788,7 +29789,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>807</v>
       </c>
@@ -29823,7 +29824,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>807</v>
       </c>
@@ -29858,7 +29859,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>807</v>
       </c>
@@ -29893,7 +29894,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>807</v>
       </c>
@@ -29928,7 +29929,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>807</v>
       </c>
@@ -29963,7 +29964,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>807</v>
       </c>
@@ -29998,7 +29999,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>807</v>
       </c>
@@ -30033,7 +30034,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>807</v>
       </c>
@@ -30068,7 +30069,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>807</v>
       </c>
@@ -30103,7 +30104,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>807</v>
       </c>
@@ -30138,7 +30139,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>807</v>
       </c>
@@ -30173,7 +30174,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>807</v>
       </c>
@@ -30193,7 +30194,7 @@
         <v>911</v>
       </c>
       <c r="G756" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H756" t="s">
         <v>84</v>
@@ -30208,7 +30209,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>807</v>
       </c>
@@ -30243,7 +30244,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>807</v>
       </c>
@@ -30278,7 +30279,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>807</v>
       </c>
@@ -30313,7 +30314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>807</v>
       </c>
@@ -30348,7 +30349,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>807</v>
       </c>
@@ -30383,7 +30384,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>807</v>
       </c>
@@ -30418,7 +30419,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>807</v>
       </c>
@@ -30453,7 +30454,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>807</v>
       </c>
@@ -30488,7 +30489,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>807</v>
       </c>
@@ -30523,7 +30524,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>807</v>
       </c>
@@ -30558,7 +30559,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>807</v>
       </c>
@@ -30593,7 +30594,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>807</v>
       </c>
@@ -30613,7 +30614,7 @@
         <v>76</v>
       </c>
       <c r="G768" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H768" t="s">
         <v>84</v>
@@ -30628,7 +30629,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>807</v>
       </c>
@@ -30663,7 +30664,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>807</v>
       </c>
@@ -30698,7 +30699,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>807</v>
       </c>
@@ -30733,7 +30734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>807</v>
       </c>
@@ -30768,7 +30769,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>807</v>
       </c>
@@ -30803,7 +30804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>807</v>
       </c>
@@ -30838,7 +30839,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>807</v>
       </c>
@@ -30873,7 +30874,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="776" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>807</v>
       </c>
@@ -30908,7 +30909,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="777" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>807</v>
       </c>
@@ -30943,7 +30944,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="778" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>807</v>
       </c>
@@ -30978,7 +30979,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="779" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>807</v>
       </c>
@@ -31013,7 +31014,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="780" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>807</v>
       </c>
@@ -31048,7 +31049,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>807</v>
       </c>
@@ -31083,7 +31084,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>807</v>
       </c>
@@ -31118,7 +31119,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>807</v>
       </c>
@@ -31153,7 +31154,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="784" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>807</v>
       </c>
@@ -31188,7 +31189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="785" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>807</v>
       </c>
@@ -31223,7 +31224,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>807</v>
       </c>
@@ -31258,7 +31259,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>807</v>
       </c>
@@ -31293,7 +31294,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="788" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>807</v>
       </c>
@@ -31328,7 +31329,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="789" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>807</v>
       </c>
@@ -31348,7 +31349,7 @@
         <v>891</v>
       </c>
       <c r="G789" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H789" t="s">
         <v>84</v>
@@ -31363,7 +31364,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>807</v>
       </c>
@@ -31398,7 +31399,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="791" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>807</v>
       </c>
@@ -31433,7 +31434,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="792" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>807</v>
       </c>
@@ -31468,7 +31469,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="793" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>807</v>
       </c>
@@ -31503,7 +31504,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="794" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>807</v>
       </c>
@@ -31538,7 +31539,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="795" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>807</v>
       </c>
@@ -31573,7 +31574,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="796" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>807</v>
       </c>
@@ -31608,7 +31609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="797" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>807</v>
       </c>
@@ -31643,7 +31644,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="798" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>807</v>
       </c>
@@ -31678,7 +31679,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="799" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>807</v>
       </c>
@@ -31713,7 +31714,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="800" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>807</v>
       </c>
@@ -31748,7 +31749,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="801" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>807</v>
       </c>
@@ -31783,7 +31784,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="802" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>807</v>
       </c>
@@ -31818,7 +31819,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="803" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>807</v>
       </c>
@@ -31853,7 +31854,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="804" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>807</v>
       </c>
@@ -31888,7 +31889,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="805" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>807</v>
       </c>
@@ -31923,7 +31924,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="806" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>807</v>
       </c>
@@ -31943,7 +31944,7 @@
         <v>810</v>
       </c>
       <c r="G806" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H806" t="s">
         <v>84</v>
@@ -31958,7 +31959,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="807" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>807</v>
       </c>
@@ -31993,7 +31994,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="808" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>807</v>
       </c>
@@ -32028,7 +32029,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="809" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>807</v>
       </c>
@@ -32063,7 +32064,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="810" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>807</v>
       </c>
@@ -32098,7 +32099,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="811" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>807</v>
       </c>
@@ -32133,7 +32134,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="812" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>807</v>
       </c>
@@ -32168,7 +32169,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="813" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>807</v>
       </c>
@@ -32203,7 +32204,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="814" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>807</v>
       </c>
@@ -32238,7 +32239,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="815" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>807</v>
       </c>
@@ -32273,7 +32274,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="816" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
         <v>807</v>
       </c>
@@ -32308,7 +32309,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="817" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>807</v>
       </c>
@@ -32343,7 +32344,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="818" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>807</v>
       </c>
@@ -32363,7 +32364,7 @@
         <v>76</v>
       </c>
       <c r="G818" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H818" t="s">
         <v>84</v>
@@ -32378,7 +32379,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="819" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>807</v>
       </c>
@@ -32398,7 +32399,7 @@
         <v>76</v>
       </c>
       <c r="G819" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H819" t="s">
         <v>84</v>
@@ -32413,7 +32414,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="820" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>807</v>
       </c>
@@ -32433,7 +32434,7 @@
         <v>76</v>
       </c>
       <c r="G820" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H820" t="s">
         <v>84</v>
@@ -32448,7 +32449,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="821" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>807</v>
       </c>
@@ -32483,7 +32484,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="822" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>807</v>
       </c>
@@ -32518,7 +32519,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="823" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>807</v>
       </c>
@@ -32553,7 +32554,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="824" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>807</v>
       </c>
@@ -32588,7 +32589,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="825" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>807</v>
       </c>
@@ -32623,7 +32624,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="826" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>807</v>
       </c>
@@ -32658,7 +32659,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="827" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>807</v>
       </c>
@@ -32678,7 +32679,7 @@
         <v>873</v>
       </c>
       <c r="G827" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H827" t="s">
         <v>84</v>
@@ -32693,7 +32694,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="828" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>807</v>
       </c>
@@ -32713,7 +32714,7 @@
         <v>873</v>
       </c>
       <c r="G828" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H828" t="s">
         <v>84</v>
@@ -32728,7 +32729,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="829" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>807</v>
       </c>
@@ -32763,7 +32764,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="830" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>807</v>
       </c>
@@ -32798,7 +32799,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="831" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>807</v>
       </c>
@@ -32833,7 +32834,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="832" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>807</v>
       </c>
@@ -32868,7 +32869,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="833" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>807</v>
       </c>
@@ -32888,7 +32889,7 @@
         <v>878</v>
       </c>
       <c r="G833" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H833" t="s">
         <v>84</v>
@@ -32903,7 +32904,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="834" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
         <v>807</v>
       </c>
@@ -32923,7 +32924,7 @@
         <v>878</v>
       </c>
       <c r="G834" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H834" t="s">
         <v>84</v>
@@ -32938,7 +32939,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="835" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
         <v>807</v>
       </c>
@@ -32958,7 +32959,7 @@
         <v>885</v>
       </c>
       <c r="G835" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H835" t="s">
         <v>84</v>
@@ -32973,7 +32974,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="836" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
         <v>807</v>
       </c>
@@ -33008,7 +33009,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="837" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
         <v>807</v>
       </c>
@@ -33043,7 +33044,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="838" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
         <v>807</v>
       </c>
@@ -33078,7 +33079,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="839" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>807</v>
       </c>
@@ -33113,7 +33114,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="840" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
         <v>807</v>
       </c>
@@ -33148,7 +33149,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="841" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>807</v>
       </c>
@@ -33183,7 +33184,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="842" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
         <v>807</v>
       </c>
@@ -33218,7 +33219,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="843" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
         <v>807</v>
       </c>
@@ -33253,7 +33254,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="844" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
         <v>807</v>
       </c>
@@ -33288,7 +33289,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="845" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>807</v>
       </c>
@@ -33323,7 +33324,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="846" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
         <v>807</v>
       </c>
@@ -33358,7 +33359,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="847" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
         <v>807</v>
       </c>
@@ -33393,7 +33394,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="848" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
         <v>807</v>
       </c>
@@ -33428,7 +33429,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="849" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
         <v>807</v>
       </c>
@@ -33463,7 +33464,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="850" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
         <v>807</v>
       </c>
@@ -33498,7 +33499,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="851" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
         <v>807</v>
       </c>
@@ -33533,7 +33534,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="852" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
         <v>807</v>
       </c>
@@ -33568,7 +33569,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="853" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
         <v>807</v>
       </c>
@@ -33603,7 +33604,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="854" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
         <v>807</v>
       </c>
@@ -33638,7 +33639,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="855" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
         <v>807</v>
       </c>
@@ -33673,7 +33674,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="856" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
         <v>807</v>
       </c>
@@ -33708,7 +33709,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="857" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
         <v>807</v>
       </c>
@@ -33743,7 +33744,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="858" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
         <v>807</v>
       </c>
@@ -33778,7 +33779,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="859" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
         <v>807</v>
       </c>
@@ -33813,7 +33814,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="860" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
         <v>807</v>
       </c>
@@ -33848,7 +33849,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="861" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
         <v>807</v>
       </c>
@@ -33883,7 +33884,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="862" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
         <v>807</v>
       </c>
@@ -33918,7 +33919,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="863" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
         <v>807</v>
       </c>
@@ -33953,7 +33954,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="864" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
         <v>807</v>
       </c>
@@ -33988,7 +33989,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="865" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
         <v>807</v>
       </c>
@@ -34023,7 +34024,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="866" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
         <v>807</v>
       </c>
@@ -34058,7 +34059,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="867" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
         <v>807</v>
       </c>
@@ -34093,7 +34094,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="868" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
         <v>807</v>
       </c>
@@ -34128,7 +34129,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="869" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
         <v>965</v>
       </c>
@@ -34163,7 +34164,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="870" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
         <v>965</v>
       </c>
@@ -34198,7 +34199,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="871" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
         <v>965</v>
       </c>
@@ -34233,7 +34234,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="872" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
         <v>965</v>
       </c>
@@ -34268,7 +34269,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="873" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
         <v>965</v>
       </c>
@@ -34303,7 +34304,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="874" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
         <v>965</v>
       </c>
@@ -34338,7 +34339,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="875" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
         <v>965</v>
       </c>
@@ -34373,7 +34374,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="876" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
         <v>965</v>
       </c>
@@ -34408,7 +34409,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="877" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
         <v>965</v>
       </c>
@@ -34478,7 +34479,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="879" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
         <v>965</v>
       </c>
@@ -34513,7 +34514,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="880" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
         <v>965</v>
       </c>
@@ -34548,7 +34549,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="881" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
         <v>965</v>
       </c>
@@ -34583,7 +34584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="882" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
         <v>965</v>
       </c>
@@ -34618,7 +34619,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="883" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
         <v>965</v>
       </c>
@@ -34653,7 +34654,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="884" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
         <v>965</v>
       </c>
@@ -34688,7 +34689,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="885" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
         <v>965</v>
       </c>
@@ -34723,7 +34724,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="886" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
         <v>965</v>
       </c>
@@ -34758,7 +34759,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="887" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
         <v>965</v>
       </c>
@@ -34793,7 +34794,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="888" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
         <v>965</v>
       </c>
@@ -34828,7 +34829,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="889" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
         <v>965</v>
       </c>
@@ -34863,7 +34864,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="890" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
         <v>965</v>
       </c>
@@ -34898,7 +34899,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="891" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
         <v>965</v>
       </c>
@@ -34968,7 +34969,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="893" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
         <v>965</v>
       </c>
@@ -35003,7 +35004,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="894" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
         <v>965</v>
       </c>
@@ -35038,7 +35039,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="895" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
         <v>965</v>
       </c>
@@ -35073,7 +35074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="896" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
         <v>965</v>
       </c>
@@ -35108,7 +35109,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="897" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
         <v>965</v>
       </c>
@@ -35143,7 +35144,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="898" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
         <v>965</v>
       </c>
@@ -35178,7 +35179,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="899" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
         <v>965</v>
       </c>
@@ -35213,7 +35214,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="900" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
         <v>965</v>
       </c>
@@ -35248,7 +35249,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="901" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
         <v>965</v>
       </c>
@@ -35283,7 +35284,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="902" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
         <v>965</v>
       </c>
@@ -35318,7 +35319,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="903" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
         <v>965</v>
       </c>
@@ -35353,7 +35354,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="904" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
         <v>1001</v>
       </c>
@@ -35388,7 +35389,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="905" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
         <v>1001</v>
       </c>
@@ -35423,7 +35424,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="906" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
         <v>1001</v>
       </c>
@@ -35458,7 +35459,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="907" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
         <v>1001</v>
       </c>
@@ -35493,7 +35494,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="908" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
         <v>1001</v>
       </c>
@@ -35528,7 +35529,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="909" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A909" t="s">
         <v>1001</v>
       </c>
@@ -35563,7 +35564,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="910" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
         <v>1001</v>
       </c>
@@ -35598,7 +35599,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="911" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
         <v>1001</v>
       </c>
@@ -35633,7 +35634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="912" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
         <v>1001</v>
       </c>
@@ -35668,7 +35669,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="913" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
         <v>1001</v>
       </c>
@@ -35703,7 +35704,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="914" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
         <v>1001</v>
       </c>
@@ -35738,7 +35739,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="915" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
         <v>1017</v>
       </c>
@@ -35773,7 +35774,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="916" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A916" t="s">
         <v>1017</v>
       </c>
@@ -35808,7 +35809,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="917" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
         <v>1017</v>
       </c>
@@ -35843,7 +35844,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="918" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
         <v>1017</v>
       </c>
@@ -35878,7 +35879,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="919" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
         <v>1017</v>
       </c>
@@ -35913,7 +35914,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="920" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
         <v>1017</v>
       </c>
@@ -35948,7 +35949,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="921" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
         <v>1017</v>
       </c>
@@ -35983,7 +35984,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="922" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
         <v>1017</v>
       </c>
@@ -36018,7 +36019,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="923" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
         <v>1017</v>
       </c>
@@ -36053,7 +36054,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="924" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
         <v>1017</v>
       </c>
@@ -36088,7 +36089,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="925" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
         <v>1017</v>
       </c>
@@ -36123,7 +36124,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="926" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
         <v>1017</v>
       </c>
@@ -36158,7 +36159,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="927" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
         <v>1017</v>
       </c>
@@ -36193,7 +36194,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="928" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
         <v>1017</v>
       </c>
@@ -36228,7 +36229,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="929" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
         <v>1017</v>
       </c>
@@ -36263,7 +36264,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="930" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
         <v>1017</v>
       </c>
@@ -36298,7 +36299,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="931" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
         <v>1017</v>
       </c>
@@ -36333,7 +36334,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="932" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
         <v>1017</v>
       </c>
@@ -36368,7 +36369,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="933" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
         <v>1017</v>
       </c>
@@ -36403,7 +36404,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="934" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A934" t="s">
         <v>1017</v>
       </c>
@@ -36438,7 +36439,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="935" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
         <v>1017</v>
       </c>
@@ -36473,7 +36474,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="936" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
         <v>1017</v>
       </c>
@@ -36508,7 +36509,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="937" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A937" t="s">
         <v>1017</v>
       </c>
@@ -36543,7 +36544,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="938" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
         <v>1017</v>
       </c>
@@ -36578,7 +36579,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="939" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A939" t="s">
         <v>1017</v>
       </c>
@@ -36613,7 +36614,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="940" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
         <v>1017</v>
       </c>
@@ -36648,7 +36649,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="941" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A941" t="s">
         <v>1017</v>
       </c>
@@ -36683,7 +36684,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="942" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
         <v>1017</v>
       </c>
@@ -36718,7 +36719,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="943" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A943" t="s">
         <v>1048</v>
       </c>
@@ -36753,7 +36754,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="944" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
         <v>1048</v>
       </c>
@@ -36788,7 +36789,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="945" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
         <v>1048</v>
       </c>
@@ -36823,7 +36824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="946" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
         <v>1048</v>
       </c>
@@ -36858,7 +36859,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="947" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
         <v>1048</v>
       </c>
@@ -36893,7 +36894,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="948" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
         <v>1048</v>
       </c>
@@ -36928,7 +36929,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="949" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A949" t="s">
         <v>1048</v>
       </c>
@@ -36963,7 +36964,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="950" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
         <v>1048</v>
       </c>
@@ -36998,7 +36999,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="951" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
         <v>1048</v>
       </c>
@@ -37033,7 +37034,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="952" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A952" t="s">
         <v>1048</v>
       </c>
@@ -37068,7 +37069,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="953" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
         <v>1048</v>
       </c>
@@ -37103,7 +37104,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="954" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A954" t="s">
         <v>1048</v>
       </c>
@@ -37138,7 +37139,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="955" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
         <v>1048</v>
       </c>
@@ -37173,7 +37174,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="956" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
         <v>1048</v>
       </c>
@@ -37208,7 +37209,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="957" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
         <v>1048</v>
       </c>
@@ -37243,7 +37244,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="958" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A958" t="s">
         <v>1048</v>
       </c>
@@ -37278,7 +37279,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="959" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
         <v>1048</v>
       </c>
@@ -37313,7 +37314,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="960" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
         <v>1048</v>
       </c>
@@ -37348,7 +37349,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="961" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A961" t="s">
         <v>1048</v>
       </c>
@@ -37383,7 +37384,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="962" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
         <v>1048</v>
       </c>
@@ -37418,7 +37419,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="963" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A963" t="s">
         <v>1048</v>
       </c>
@@ -37453,7 +37454,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="964" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A964" t="s">
         <v>1048</v>
       </c>
@@ -37488,7 +37489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="965" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
         <v>1048</v>
       </c>
@@ -37523,7 +37524,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="966" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
         <v>1048</v>
       </c>
@@ -37558,7 +37559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="967" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
         <v>1048</v>
       </c>
@@ -37593,7 +37594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="968" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
         <v>1048</v>
       </c>
@@ -37628,7 +37629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="969" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A969" t="s">
         <v>1048</v>
       </c>
@@ -37663,7 +37664,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="970" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A970" t="s">
         <v>1048</v>
       </c>
@@ -37698,7 +37699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="971" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
         <v>1048</v>
       </c>
@@ -37733,7 +37734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="972" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A972" t="s">
         <v>1048</v>
       </c>
@@ -37768,7 +37769,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="973" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A973" t="s">
         <v>1048</v>
       </c>
@@ -37803,7 +37804,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="974" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
         <v>1048</v>
       </c>
@@ -37838,7 +37839,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="975" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
         <v>1048</v>
       </c>
@@ -37873,7 +37874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="976" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
         <v>1048</v>
       </c>
@@ -37908,7 +37909,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="977" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
         <v>1048</v>
       </c>
@@ -37943,7 +37944,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="978" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
         <v>1048</v>
       </c>
@@ -37978,7 +37979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="979" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
         <v>1048</v>
       </c>
@@ -38013,7 +38014,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="980" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A980" t="s">
         <v>1048</v>
       </c>
@@ -38048,7 +38049,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="981" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A981" t="s">
         <v>1048</v>
       </c>
@@ -38083,7 +38084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="982" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A982" t="s">
         <v>1048</v>
       </c>
@@ -38118,7 +38119,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="983" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A983" t="s">
         <v>1048</v>
       </c>
@@ -38153,7 +38154,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="984" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A984" t="s">
         <v>1048</v>
       </c>
@@ -38188,7 +38189,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="985" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A985" t="s">
         <v>1048</v>
       </c>
@@ -38223,7 +38224,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="986" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A986" t="s">
         <v>1048</v>
       </c>
@@ -38258,7 +38259,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="987" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A987" t="s">
         <v>1048</v>
       </c>
@@ -38293,7 +38294,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="988" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A988" t="s">
         <v>1048</v>
       </c>
@@ -38328,7 +38329,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="989" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A989" t="s">
         <v>1048</v>
       </c>
@@ -38363,7 +38364,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="990" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A990" t="s">
         <v>1048</v>
       </c>
@@ -38398,7 +38399,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="991" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A991" t="s">
         <v>1048</v>
       </c>
@@ -38433,7 +38434,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="992" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A992" t="s">
         <v>1048</v>
       </c>
@@ -38468,7 +38469,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="993" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A993" t="s">
         <v>1048</v>
       </c>
@@ -38503,7 +38504,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="994" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A994" t="s">
         <v>1048</v>
       </c>
@@ -38538,7 +38539,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="995" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A995" t="s">
         <v>1048</v>
       </c>
@@ -38573,7 +38574,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="996" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A996" t="s">
         <v>1048</v>
       </c>
@@ -38608,7 +38609,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="997" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A997" t="s">
         <v>1048</v>
       </c>
@@ -38643,7 +38644,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="998" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A998" t="s">
         <v>1065</v>
       </c>
@@ -38678,7 +38679,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="999" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A999" t="s">
         <v>1065</v>
       </c>
@@ -38713,7 +38714,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="1000" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1000" t="s">
         <v>1065</v>
       </c>
@@ -38748,7 +38749,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1001" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1001" t="s">
         <v>1065</v>
       </c>
@@ -38783,7 +38784,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="1002" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1002" t="s">
         <v>1065</v>
       </c>
@@ -38818,7 +38819,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="1003" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1003" t="s">
         <v>1074</v>
       </c>
@@ -38853,7 +38854,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1004" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1004" t="s">
         <v>1074</v>
       </c>
@@ -38888,7 +38889,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1005" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1005" t="s">
         <v>1074</v>
       </c>
@@ -38923,7 +38924,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="1006" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1006" t="s">
         <v>1074</v>
       </c>
@@ -38958,7 +38959,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="1007" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1007" t="s">
         <v>1065</v>
       </c>
@@ -38993,7 +38994,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="1008" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1008" t="s">
         <v>1065</v>
       </c>
@@ -39028,7 +39029,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="1009" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1009" t="s">
         <v>1065</v>
       </c>
@@ -39063,7 +39064,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1010" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1010" t="s">
         <v>1065</v>
       </c>
@@ -39098,7 +39099,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="1011" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1011" t="s">
         <v>1074</v>
       </c>
@@ -39133,7 +39134,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="1012" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1012" t="s">
         <v>1074</v>
       </c>
@@ -39168,7 +39169,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="1013" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1013" t="s">
         <v>1074</v>
       </c>
@@ -39203,7 +39204,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1014" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1014" t="s">
         <v>1074</v>
       </c>
@@ -39238,7 +39239,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1015" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1015" t="s">
         <v>1074</v>
       </c>
@@ -39273,7 +39274,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1016" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1016" t="s">
         <v>1074</v>
       </c>
@@ -39308,7 +39309,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="1017" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1017" t="s">
         <v>1074</v>
       </c>
@@ -39343,7 +39344,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="1018" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1018" t="s">
         <v>1074</v>
       </c>
@@ -39378,7 +39379,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="1019" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1019" t="s">
         <v>1074</v>
       </c>
@@ -39413,7 +39414,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="1020" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1020" t="s">
         <v>1074</v>
       </c>
@@ -39448,7 +39449,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1021" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1021" t="s">
         <v>1105</v>
       </c>
@@ -39483,7 +39484,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="1022" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1022" t="s">
         <v>1105</v>
       </c>
@@ -39518,7 +39519,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="1023" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1023" t="s">
         <v>1105</v>
       </c>
@@ -39553,7 +39554,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="1024" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1024" t="s">
         <v>1105</v>
       </c>
@@ -39588,7 +39589,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="1025" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1025" t="s">
         <v>1105</v>
       </c>
@@ -39623,7 +39624,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="1026" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1026" t="s">
         <v>1105</v>
       </c>
@@ -39658,7 +39659,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="1027" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1027" t="s">
         <v>1105</v>
       </c>
@@ -39693,7 +39694,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="1028" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1028" t="s">
         <v>1105</v>
       </c>
@@ -39728,7 +39729,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="1029" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1029" t="s">
         <v>1105</v>
       </c>
@@ -39763,7 +39764,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="1030" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1030" t="s">
         <v>1105</v>
       </c>
@@ -39798,7 +39799,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="1031" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1031" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1031" t="s">
         <v>1105</v>
       </c>
@@ -39833,7 +39834,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="1032" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1032" t="s">
         <v>1105</v>
       </c>
@@ -39868,7 +39869,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="1033" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1033" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1033" t="s">
         <v>1105</v>
       </c>
@@ -39903,7 +39904,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="1034" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1034" t="s">
         <v>1105</v>
       </c>
@@ -39938,7 +39939,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="1035" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1035" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1035" t="s">
         <v>1105</v>
       </c>
@@ -39973,7 +39974,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1036" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1036" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1036" t="s">
         <v>1105</v>
       </c>
@@ -40008,7 +40009,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="1037" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1037" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1037" t="s">
         <v>1105</v>
       </c>
@@ -40043,7 +40044,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="1038" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1038" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1038" t="s">
         <v>1105</v>
       </c>
@@ -40078,7 +40079,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="1039" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1039" t="s">
         <v>1105</v>
       </c>
@@ -40113,7 +40114,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="1040" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1040" t="s">
         <v>1105</v>
       </c>
@@ -40148,7 +40149,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="1041" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1041" t="s">
         <v>1105</v>
       </c>
@@ -40183,7 +40184,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="1042" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1042" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1042" t="s">
         <v>1105</v>
       </c>
@@ -40218,7 +40219,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="1043" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1043" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1043" t="s">
         <v>1105</v>
       </c>
@@ -40253,7 +40254,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="1044" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1044" t="s">
         <v>1105</v>
       </c>
@@ -40288,7 +40289,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1045" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1045" t="s">
         <v>673</v>
       </c>
@@ -40323,7 +40324,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="1046" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1046" t="s">
         <v>673</v>
       </c>
@@ -40358,7 +40359,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="1047" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1047" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1047" t="s">
         <v>673</v>
       </c>
@@ -40393,7 +40394,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="1048" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1048" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1048" t="s">
         <v>673</v>
       </c>
@@ -40428,7 +40429,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1049" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1049" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1049" t="s">
         <v>673</v>
       </c>
@@ -40463,7 +40464,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1050" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1050" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1050" t="s">
         <v>673</v>
       </c>
@@ -40498,7 +40499,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1051" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1051" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1051" t="s">
         <v>673</v>
       </c>
@@ -40533,7 +40534,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1052" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1052" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1052" t="s">
         <v>673</v>
       </c>
@@ -40568,7 +40569,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1053" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1053" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1053" t="s">
         <v>673</v>
       </c>
@@ -40603,7 +40604,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1054" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1054" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1054" t="s">
         <v>673</v>
       </c>
@@ -40638,7 +40639,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1055" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1055" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1055" t="s">
         <v>673</v>
       </c>
@@ -40673,7 +40674,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="1056" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1056" t="s">
         <v>673</v>
       </c>
@@ -40709,7 +40710,20 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1020" xr:uid="{9365272C-0459-4BC1-BEFE-6EFEC8BB175A}"/>
+  <autoFilter ref="A1:K1056" xr:uid="{9365272C-0459-4BC1-BEFE-6EFEC8BB175A}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="HF PLATAFORMA APRENDIZAGEM EBK NURSERY - ANUAL"/>
+        <filter val="High Five Nursery CLIL ALL CAPS"/>
+        <filter val="High Five Nursery Language ALL CAPS"/>
+        <filter val="High Five Nursery PBL ALL CAPS"/>
+        <filter val="HIGH FIVE NURSERY STUDENT PACK - 3H"/>
+        <filter val="HIGH FIVE NURSERY STUDENT PACK - 5H"/>
+        <filter val="Nursery 2024"/>
+        <filter val="Nursery 2024_FC "/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/input/combos.xlsx
+++ b/input/combos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\andrerodrigues\projetos\licencas\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05BBAAC-9959-49B4-B7A8-E0CE16B47140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C437FDA-5A7B-4211-AD54-731860508CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{311B407B-F149-4833-BA1A-AA9E48DB4D65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{311B407B-F149-4833-BA1A-AA9E48DB4D65}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -3431,9 +3431,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3471,7 +3471,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3577,7 +3577,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3719,7 +3719,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3730,8 +3730,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K1056"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G756" sqref="G756"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1062" sqref="E1062"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27094,7 +27094,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>807</v>
       </c>
@@ -27514,7 +27514,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>807</v>
       </c>
@@ -27549,7 +27549,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>807</v>
       </c>
@@ -27584,7 +27584,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>807</v>
       </c>
@@ -29124,7 +29124,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>807</v>
       </c>
@@ -29544,7 +29544,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>807</v>
       </c>
@@ -34444,7 +34444,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="878" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
         <v>965</v>
       </c>
@@ -34934,7 +34934,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="892" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
         <v>965</v>
       </c>
@@ -40289,7 +40289,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1045" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1045" t="s">
         <v>673</v>
       </c>
@@ -40303,10 +40303,10 @@
         <v>674</v>
       </c>
       <c r="E1045" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F1045" t="s">
         <v>1106</v>
-      </c>
-      <c r="F1045" t="s">
-        <v>1107</v>
       </c>
       <c r="G1045" t="s">
         <v>83</v>
@@ -40324,7 +40324,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="1046" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1046" t="s">
         <v>673</v>
       </c>
@@ -40338,10 +40338,10 @@
         <v>675</v>
       </c>
       <c r="E1046" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F1046" t="s">
         <v>1106</v>
-      </c>
-      <c r="F1046" t="s">
-        <v>1107</v>
       </c>
       <c r="G1046" t="s">
         <v>88</v>
@@ -40359,7 +40359,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="1047" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1047" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1047" t="s">
         <v>673</v>
       </c>
@@ -40373,10 +40373,10 @@
         <v>676</v>
       </c>
       <c r="E1047" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F1047" t="s">
         <v>1106</v>
-      </c>
-      <c r="F1047" t="s">
-        <v>1107</v>
       </c>
       <c r="G1047" t="s">
         <v>92</v>
@@ -40394,7 +40394,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="1048" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1048" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1048" t="s">
         <v>673</v>
       </c>
@@ -40408,10 +40408,10 @@
         <v>677</v>
       </c>
       <c r="E1048" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F1048" t="s">
         <v>1106</v>
-      </c>
-      <c r="F1048" t="s">
-        <v>1107</v>
       </c>
       <c r="G1048" t="s">
         <v>11</v>
@@ -40429,7 +40429,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1049" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1049" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1049" t="s">
         <v>673</v>
       </c>
@@ -40443,10 +40443,10 @@
         <v>1108</v>
       </c>
       <c r="E1049" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F1049" t="s">
         <v>1106</v>
-      </c>
-      <c r="F1049" t="s">
-        <v>1107</v>
       </c>
       <c r="G1049" t="s">
         <v>17</v>
@@ -40464,7 +40464,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1050" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1050" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1050" t="s">
         <v>673</v>
       </c>
@@ -40478,10 +40478,10 @@
         <v>679</v>
       </c>
       <c r="E1050" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F1050" t="s">
         <v>1106</v>
-      </c>
-      <c r="F1050" t="s">
-        <v>1107</v>
       </c>
       <c r="G1050" t="s">
         <v>22</v>
@@ -40499,7 +40499,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1051" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1051" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1051" t="s">
         <v>673</v>
       </c>
@@ -40513,10 +40513,10 @@
         <v>680</v>
       </c>
       <c r="E1051" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F1051" t="s">
         <v>1106</v>
-      </c>
-      <c r="F1051" t="s">
-        <v>1107</v>
       </c>
       <c r="G1051" t="s">
         <v>27</v>
@@ -40534,7 +40534,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1052" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1052" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1052" t="s">
         <v>673</v>
       </c>
@@ -40548,10 +40548,10 @@
         <v>681</v>
       </c>
       <c r="E1052" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F1052" t="s">
         <v>1106</v>
-      </c>
-      <c r="F1052" t="s">
-        <v>1107</v>
       </c>
       <c r="G1052" t="s">
         <v>34</v>
@@ -40569,7 +40569,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1053" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1053" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1053" t="s">
         <v>673</v>
       </c>
@@ -40583,10 +40583,10 @@
         <v>682</v>
       </c>
       <c r="E1053" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F1053" t="s">
         <v>1106</v>
-      </c>
-      <c r="F1053" t="s">
-        <v>1107</v>
       </c>
       <c r="G1053" t="s">
         <v>39</v>
@@ -40604,7 +40604,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1054" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1054" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1054" t="s">
         <v>673</v>
       </c>
@@ -40618,10 +40618,10 @@
         <v>683</v>
       </c>
       <c r="E1054" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F1054" t="s">
         <v>1106</v>
-      </c>
-      <c r="F1054" t="s">
-        <v>1107</v>
       </c>
       <c r="G1054" t="s">
         <v>45</v>
@@ -40639,7 +40639,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1055" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1055" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1055" t="s">
         <v>673</v>
       </c>
@@ -40653,10 +40653,10 @@
         <v>684</v>
       </c>
       <c r="E1055" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F1055" t="s">
         <v>1106</v>
-      </c>
-      <c r="F1055" t="s">
-        <v>1107</v>
       </c>
       <c r="G1055" t="s">
         <v>50</v>
@@ -40674,7 +40674,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="1056" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1056" t="s">
         <v>673</v>
       </c>
@@ -40688,10 +40688,10 @@
         <v>685</v>
       </c>
       <c r="E1056" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F1056" t="s">
         <v>1106</v>
-      </c>
-      <c r="F1056" t="s">
-        <v>1107</v>
       </c>
       <c r="G1056" t="s">
         <v>55</v>
@@ -40711,16 +40711,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K1056" xr:uid="{9365272C-0459-4BC1-BEFE-6EFEC8BB175A}">
-    <filterColumn colId="3">
+    <filterColumn colId="4">
       <filters>
-        <filter val="HF PLATAFORMA APRENDIZAGEM EBK NURSERY - ANUAL"/>
-        <filter val="High Five Nursery CLIL ALL CAPS"/>
-        <filter val="High Five Nursery Language ALL CAPS"/>
-        <filter val="High Five Nursery PBL ALL CAPS"/>
-        <filter val="HIGH FIVE NURSERY STUDENT PACK - 3H"/>
-        <filter val="HIGH FIVE NURSERY STUDENT PACK - 5H"/>
-        <filter val="Nursery 2024"/>
-        <filter val="Nursery 2024_FC "/>
+        <filter val="ingles_elt_AZ_2024"/>
       </filters>
     </filterColumn>
   </autoFilter>
